--- a/financial_models/opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12841486-A881-F044-91A6-AB48AD3F32F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336B0FD4-1DC6-474C-B8E5-A3C009A4ED29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -26,17 +26,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -45,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="230">
   <si>
     <t>Company Info:</t>
   </si>
@@ -623,10 +612,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>After-Tax Profit Growth Rate =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Valuation Drivers</t>
   </si>
   <si>
@@ -636,9 +621,6 @@
     <t>Internal Drivers</t>
   </si>
   <si>
-    <t xml:space="preserve">Adj. Book Pre-tax ROA = </t>
-  </si>
-  <si>
     <t>Adj. Pre-tax ROA</t>
   </si>
   <si>
@@ -702,12 +684,6 @@
     <t xml:space="preserve">Pre-tax Profit </t>
   </si>
   <si>
-    <t>After-Tax Profit Growth Rate</t>
-  </si>
-  <si>
-    <t>Adj. Book Pre-tax ROA</t>
-  </si>
-  <si>
     <t>Choice of Required Return</t>
   </si>
   <si>
@@ -742,9 +718,6 @@
   </si>
   <si>
     <t>https://fred.stlouisfed.org/series/DGS10</t>
-  </si>
-  <si>
-    <t>Business Indicators</t>
   </si>
   <si>
     <t>Normalized Cost Structure</t>
@@ -817,23 +790,37 @@
   </si>
   <si>
     <t>Avg</t>
+  </si>
+  <si>
+    <t>Future Value is</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initial Rate of Return (E/P)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>@15% Target</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00\x"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
+  <numFmts count="12">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1295,10 +1282,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1351,8 +1338,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1375,14 +1362,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1407,7 +1394,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1424,7 +1411,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1432,7 +1419,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1479,7 +1466,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1553,7 +1540,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1588,9 +1575,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1632,10 +1616,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1646,16 +1627,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1719,7 +1700,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1728,10 +1709,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1749,7 +1730,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1763,7 +1750,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1771,13 +1758,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1785,21 +1772,26 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2116,23 +2108,23 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2141,7 +2133,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2156,31 +2148,31 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C3" s="200" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D3" s="201"/>
       <c r="E3" s="94"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="171">
+      <c r="G3" s="169">
         <v>2.0899999141693115</v>
       </c>
-      <c r="H3" s="173" t="s">
+      <c r="H3" s="171" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="35" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C4" s="202" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D4" s="203"/>
       <c r="E4" s="94"/>
@@ -2193,9 +2185,9 @@
       <c r="H4" s="206"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C5" s="204">
         <v>45593</v>
@@ -2213,14 +2205,14 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="191">
+      <c r="C6" s="189">
         <v>8</v>
       </c>
-      <c r="D6" s="192">
+      <c r="D6" s="190">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -2232,26 +2224,26 @@
         <v>5</v>
       </c>
       <c r="G6" s="199" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H6" s="199"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93" t="s">
-        <v>219</v>
-      </c>
-      <c r="C7" s="190" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="188" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="196" t="s">
-        <v>228</v>
+      <c r="D7" s="194" t="s">
+        <v>223</v>
       </c>
       <c r="E7" s="94"/>
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="172">
+      <c r="G7" s="170">
         <v>1.0905426343282063</v>
       </c>
       <c r="H7" s="77" t="str">
@@ -2259,1154 +2251,1142 @@
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="180" t="s">
-        <v>217</v>
-      </c>
-      <c r="F9" s="186" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="178" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" s="184" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="168">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="F10" s="125" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="146" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="170">
-        <v>4.2099999999999999E-2</v>
-      </c>
-      <c r="F10" s="125" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="147" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" s="184">
+      <c r="C11" s="182">
         <v>5.3099999999999994E-2</v>
       </c>
-      <c r="D11" s="177" t="s">
-        <v>215</v>
+      <c r="D11" s="175" t="s">
+        <v>210</v>
       </c>
       <c r="F11" s="125" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="193">
+      <c r="C12" s="191">
         <v>0.08</v>
       </c>
-      <c r="D12" s="170">
+      <c r="D12" s="168">
         <v>9.6250000000000002E-2</v>
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="168">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="F14" s="125" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="168">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="125" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="170">
-        <v>2.0799999999999999E-2</v>
-      </c>
-      <c r="F14" s="125" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C15" s="170">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="125" t="s">
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="146" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="182">
+        <v>0.16</v>
+      </c>
+      <c r="D16" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="F16" s="125" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="94" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="192">
+        <v>0.1125</v>
+      </c>
+      <c r="D17" s="187"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="183" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="147" t="s">
-        <v>213</v>
-      </c>
-      <c r="C16" s="184">
-        <v>0.16</v>
-      </c>
-      <c r="D16" s="195" t="s">
-        <v>216</v>
-      </c>
-      <c r="F16" s="125" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="94" t="s">
-        <v>205</v>
-      </c>
-      <c r="C17" s="194">
-        <v>0.1125</v>
-      </c>
-      <c r="D17" s="189"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="185" t="s">
-        <v>209</v>
-      </c>
-      <c r="C19" s="175" t="s">
+      <c r="C19" s="173" t="s">
         <v>52</v>
       </c>
       <c r="D19" s="94"/>
       <c r="E19" s="94"/>
-      <c r="F19" s="185" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" s="94"/>
+      <c r="F19" s="216"/>
+      <c r="G19" s="217"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="177" t="s">
-        <v>187</v>
-      </c>
-      <c r="C20" s="178">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="175" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="176">
         <f>Fin_Analysis!F75</f>
         <v>0.55541924442229906</v>
       </c>
-      <c r="F20" s="181" t="s">
-        <v>195</v>
-      </c>
-      <c r="G20" s="178">
-        <f>Fin_Analysis!F91</f>
-        <v>0.15624904823762262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="177" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" s="178">
+      <c r="F20" s="217"/>
+      <c r="G20" s="218"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="175" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="176">
         <f>Fin_Analysis!F77</f>
         <v>0.35722663926689097</v>
       </c>
-      <c r="F21" s="181" t="s">
-        <v>194</v>
-      </c>
-      <c r="G21" s="178">
-        <f>Fin_Analysis!F92</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="177" t="s">
-        <v>189</v>
-      </c>
-      <c r="C22" s="178">
+      <c r="F21" s="217"/>
+      <c r="G21" s="218"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="175" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" s="176">
         <f>Fin_Analysis!F79</f>
         <v>6.208277497005729E-4</v>
       </c>
-      <c r="F22" s="185" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="177" t="s">
-        <v>190</v>
-      </c>
-      <c r="C23" s="178">
+      <c r="F22" s="183" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="175" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="176">
         <f>Fin_Analysis!F80</f>
         <v>2.4949477045225803E-2</v>
       </c>
-      <c r="F23" s="181" t="s">
-        <v>214</v>
-      </c>
-      <c r="G23" s="188">
+      <c r="F23" s="179" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" s="186">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
         <v>0.84408872103864507</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="177" t="s">
-        <v>191</v>
-      </c>
-      <c r="C24" s="178">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="175" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="176">
         <f>Fin_Analysis!F81</f>
         <v>0</v>
       </c>
-      <c r="F24" s="181" t="s">
-        <v>198</v>
-      </c>
-      <c r="G24" s="182">
+      <c r="F24" s="179" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" s="180">
         <f>(Fin_Analysis!E86*G7)/G3</f>
         <v>2.8651591774052427E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="177" t="s">
-        <v>218</v>
-      </c>
-      <c r="C25" s="178">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="175" t="s">
+        <v>213</v>
+      </c>
+      <c r="C25" s="176">
         <f>Fin_Analysis!F82</f>
         <v>1.3611168709786237E-3</v>
       </c>
-      <c r="F25" s="181" t="s">
-        <v>197</v>
-      </c>
-      <c r="G25" s="178">
+      <c r="F25" s="179" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" s="176">
         <f>Fin_Analysis!F87</f>
         <v>2.1453241233272657</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="179" t="s">
-        <v>193</v>
-      </c>
-      <c r="C26" s="178">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="177" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="176">
         <f>Fin_Analysis!F83</f>
         <v>6.0422694644905017E-2</v>
       </c>
-      <c r="F26" s="183" t="s">
-        <v>220</v>
-      </c>
-      <c r="G26" s="182">
+      <c r="F26" s="181" t="s">
+        <v>215</v>
+      </c>
+      <c r="G26" s="180">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
         <v>6.1466951004599722E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="98" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E28" s="62"/>
       <c r="F28" s="53" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29" s="168">
+        <v>184</v>
+      </c>
+      <c r="C29" s="166">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>1.4192546027627435</v>
-      </c>
-      <c r="D29" s="167">
+        <v>1.3108421274309707</v>
+      </c>
+      <c r="D29" s="165">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>2.3654243379379061</v>
+        <v>2.1847368790516182</v>
       </c>
       <c r="E29" s="94"/>
-      <c r="F29" s="169">
+      <c r="F29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>1.8923394703503247</v>
+        <v>1.7477895032412945</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3418,22 +3398,22 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="11" priority="4">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="10" priority="2">
+    <cfRule type="containsBlanks" dxfId="9" priority="2">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="9" priority="1">
+    <cfRule type="containsBlanks" dxfId="8" priority="1">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="8" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="40" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3470,7 +3450,7 @@
       <selection pane="topRight" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3478,7 +3458,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3486,7 +3466,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3503,7 +3483,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3529,15 +3509,15 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="139" t="s">
         <v>146</v>
       </c>
       <c r="C5" s="48">
@@ -3585,7 +3565,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3613,7 +3593,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3664,7 +3644,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3692,7 +3672,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3743,7 +3723,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3771,7 +3751,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3822,7 +3802,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3844,7 +3824,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3895,7 +3875,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3913,7 +3893,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3935,7 +3915,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3957,7 +3937,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -3985,7 +3965,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -4007,7 +3987,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4058,7 +4038,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4109,7 +4089,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4160,7 +4140,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4211,7 +4191,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4262,9 +4242,9 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
-      <c r="B24" s="139" t="s">
+      <c r="B24" s="138" t="s">
         <v>147</v>
       </c>
       <c r="C24" s="48">
@@ -4313,7 +4293,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4364,7 +4344,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4393,7 +4373,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4414,7 +4394,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4435,7 +4415,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4464,7 +4444,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4493,7 +4473,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4522,7 +4502,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4551,7 +4531,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4602,7 +4582,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4631,7 +4611,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4660,7 +4640,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4683,7 +4663,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4734,10 +4714,10 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C38" s="104">
         <f>IF(C6="","",C19/C37)</f>
@@ -4785,7 +4765,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4803,7 +4783,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4854,7 +4834,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4905,7 +4885,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4956,7 +4936,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -5007,7 +4987,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -5058,7 +5038,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -5109,7 +5089,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5160,7 +5140,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5178,7 +5158,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5229,7 +5209,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5280,7 +5260,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5297,7 +5277,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5347,7 +5327,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5397,7 +5377,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5447,7 +5427,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5497,1274 +5477,1274 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
-    <cfRule type="containsBlanks" dxfId="7" priority="3">
+    <cfRule type="containsBlanks" dxfId="6" priority="3">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:M23">
-    <cfRule type="containsBlanks" dxfId="6" priority="2">
+    <cfRule type="containsBlanks" dxfId="5" priority="2">
       <formula>LEN(TRIM(C23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:M22">
-    <cfRule type="containsBlanks" dxfId="5" priority="1">
+    <cfRule type="containsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(D22))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6785,24 +6765,24 @@
   </sheetPr>
   <dimension ref="A2:K106"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView showGridLines="0" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.59765625" style="1" customWidth="1"/>
     <col min="3" max="6" width="15.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6818,12 +6798,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="94"/>
-      <c r="D3" s="141">
+      <c r="D3" s="140">
         <f>C49-I49</f>
         <v>3027292</v>
       </c>
@@ -6841,7 +6821,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6857,7 +6837,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6872,18 +6852,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
-        <f>E49-I49-E53</f>
-        <v>2135967.15</v>
+        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <v>2329363.2425995111</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.29442975768442559</v>
+        <v>0.23054556924158254</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6897,14 +6877,14 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>1.7470222135718567</v>
+        <v>1.9052022070185468</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -6920,13 +6900,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6935,7 +6915,7 @@
       <c r="D9" s="71">
         <v>45473</v>
       </c>
-      <c r="E9" s="144" t="str">
+      <c r="E9" s="143" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -6945,7 +6925,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6953,7 +6933,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E10" s="81" t="s">
         <v>35</v>
@@ -6970,7 +6950,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -6993,7 +6973,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -7018,7 +6998,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -7041,7 +7021,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7060,11 +7040,11 @@
       <c r="H14" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="145"/>
+      <c r="I14" s="144"/>
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7089,9 +7069,9 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C16" s="63">
         <v>0</v>
@@ -7109,7 +7089,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7129,7 +7109,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7148,7 +7128,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7170,7 +7150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7194,7 +7174,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7213,7 +7193,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7237,7 +7217,7 @@
         <v>598515</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7246,7 +7226,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7268,7 +7248,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7297,7 +7277,7 @@
         <v>4.2936640732370153</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7330,7 +7310,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7363,7 +7343,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7392,7 +7372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7404,7 +7384,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7425,7 +7405,7 @@
       <c r="I30" s="63"/>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7449,7 +7429,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7471,9 +7451,9 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C33" s="63">
         <v>0</v>
@@ -7493,10 +7473,10 @@
       <c r="H33" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="145"/>
+      <c r="I33" s="144"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7521,7 +7501,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7544,7 +7524,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7568,7 +7548,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7592,7 +7572,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7611,7 +7591,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7630,7 +7610,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7649,7 +7629,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7668,7 +7648,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7690,7 +7670,7 @@
         <v>10363</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7699,7 +7679,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7718,7 +7698,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7737,7 +7717,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7767,7 +7747,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7797,7 +7777,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7823,7 +7803,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7850,20 +7830,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7880,7 +7860,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7901,7 +7881,7 @@
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7910,18 +7890,18 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="159"/>
+      <c r="E55" s="157"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -7936,7 +7916,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7951,7 +7931,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7965,7 +7945,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7974,7 +7954,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -7988,7 +7968,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -8009,11 +7989,11 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C62" s="142">
+      <c r="C62" s="141">
         <f>C11+C30</f>
         <v>2664732</v>
       </c>
@@ -8021,7 +8001,7 @@
         <f t="shared" si="7"/>
         <v>0.89513954874261281</v>
       </c>
-      <c r="E62" s="143">
+      <c r="E62" s="142">
         <f>E11+E30</f>
         <v>2385307</v>
       </c>
@@ -8030,7 +8010,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -8051,12 +8031,12 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="146" t="s">
+    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="145" t="s">
         <v>164</v>
       </c>
-      <c r="C64" s="147"/>
-      <c r="D64" s="148"/>
+      <c r="C64" s="146"/>
+      <c r="D64" s="147"/>
       <c r="E64" s="75">
         <f>D56+D57+D58</f>
         <v>33999</v>
@@ -8066,7 +8046,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -8087,7 +8067,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -8097,7 +8077,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -8111,7 +8091,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -8132,13 +8112,13 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="146" t="s">
+    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="145" t="s">
         <v>165</v>
       </c>
-      <c r="C69" s="147"/>
-      <c r="D69" s="148"/>
-      <c r="E69" s="160">
+      <c r="C69" s="146"/>
+      <c r="D69" s="147"/>
+      <c r="E69" s="158">
         <f>I49-E64</f>
         <v>608878</v>
       </c>
@@ -8147,7 +8127,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8168,7 +8148,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
@@ -8182,7 +8162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
@@ -8196,7 +8176,7 @@
       </c>
       <c r="F73" s="208"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8205,13 +8185,13 @@
         <v>1615585</v>
       </c>
       <c r="D74" s="130"/>
-      <c r="E74" s="149">
+      <c r="E74" s="148">
         <f>C74</f>
         <v>1615585</v>
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8223,16 +8203,16 @@
         <f>C75/$C$74</f>
         <v>0.55541924442229906</v>
       </c>
-      <c r="E75" s="149">
+      <c r="E75" s="148">
         <f>D75*E74</f>
         <v>897327</v>
       </c>
-      <c r="F75" s="150">
+      <c r="F75" s="149">
         <f>E75/$E$74</f>
         <v>0.55541924442229906</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8241,13 +8221,13 @@
         <v>718258</v>
       </c>
       <c r="D76" s="132"/>
-      <c r="E76" s="151">
+      <c r="E76" s="150">
         <f>E74-E75</f>
         <v>718258</v>
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8259,16 +8239,16 @@
         <f>C77/$C$74</f>
         <v>0.35722663926689097</v>
       </c>
-      <c r="E77" s="149">
+      <c r="E77" s="148">
         <f>D77*E74</f>
         <v>577130</v>
       </c>
-      <c r="F77" s="150">
+      <c r="F77" s="149">
         <f>E77/$E$74</f>
         <v>0.35722663926689097</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8277,13 +8257,13 @@
         <v>141128</v>
       </c>
       <c r="D78" s="132"/>
-      <c r="E78" s="151">
+      <c r="E78" s="150">
         <f>E76-E77</f>
         <v>141128</v>
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8295,16 +8275,16 @@
         <f>C79/$C$74</f>
         <v>6.208277497005729E-4</v>
       </c>
-      <c r="E79" s="149">
+      <c r="E79" s="148">
         <f>C79</f>
         <v>1003</v>
       </c>
-      <c r="F79" s="150">
+      <c r="F79" s="149">
         <f>E79/$E$74</f>
         <v>6.208277497005729E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8316,16 +8296,16 @@
         <f>C80/$C$74</f>
         <v>9.4776814590380575E-3</v>
       </c>
-      <c r="E80" s="149">
+      <c r="E80" s="148">
         <f>Data!C12*(Data!C12/Data!D12)</f>
         <v>40308.00087211113</v>
       </c>
-      <c r="F80" s="150">
+      <c r="F80" s="149">
         <f t="shared" ref="F80:F83" si="8">E80/$E$74</f>
         <v>2.4949477045225803E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8337,11 +8317,11 @@
         <f>C81/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E81" s="149">
+      <c r="E81" s="148">
         <f>C81</f>
         <v>0</v>
       </c>
-      <c r="F81" s="150">
+      <c r="F81" s="149">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -8349,9 +8329,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="79" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C82" s="95">
         <f>MAX(Data!C18,0)</f>
@@ -8361,16 +8341,16 @@
         <f>C82/$C$74</f>
         <v>1.3611168709786237E-3</v>
       </c>
-      <c r="E82" s="149">
+      <c r="E82" s="148">
         <f>D82*E74</f>
         <v>2199</v>
       </c>
-      <c r="F82" s="150">
+      <c r="F82" s="149">
         <f t="shared" si="8"/>
         <v>1.3611168709786237E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8382,7 +8362,7 @@
         <f>C83/$C$74</f>
         <v>7.5894490231092765E-2</v>
       </c>
-      <c r="E83" s="152">
+      <c r="E83" s="151">
         <f>E78-E79-E80-E81-E82</f>
         <v>97617.999127888877</v>
       </c>
@@ -8391,20 +8371,20 @@
         <v>6.0422694644905017E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
       <c r="C84" s="121"/>
       <c r="D84" s="134"/>
-      <c r="E84" s="153"/>
+      <c r="E84" s="152"/>
       <c r="F84" s="136">
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C85" s="118">
         <f>C83*(1-F84)</f>
@@ -8414,7 +8394,7 @@
         <f>C85/$C$74</f>
         <v>5.6920867673319574E-2</v>
       </c>
-      <c r="E85" s="154">
+      <c r="E85" s="153">
         <f>E83*(1-F84)</f>
         <v>73213.499345916658</v>
       </c>
@@ -8423,26 +8403,26 @@
         <v>4.5317020983678763E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="94" t="s">
-        <v>176</v>
-      </c>
-      <c r="C86" s="161">
+        <v>174</v>
+      </c>
+      <c r="C86" s="159">
         <f>C85*Data!E3/Common_Shares</f>
         <v>6.8970366378704198E-2</v>
       </c>
       <c r="D86" s="130"/>
-      <c r="E86" s="163">
+      <c r="E86" s="161">
         <f>E85*Data!E3/Common_Shares</f>
         <v>5.4910117645672787E-2</v>
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="93" t="s">
-        <v>177</v>
-      </c>
-      <c r="C87" s="164">
+        <v>175</v>
+      </c>
+      <c r="C87" s="162">
         <f>0.0538+0.064</f>
         <v>0.1178</v>
       </c>
@@ -8450,7 +8430,7 @@
         <f>C87/C86</f>
         <v>1.7079799076777531</v>
       </c>
-      <c r="E87" s="162">
+      <c r="E87" s="160">
         <f>C87</f>
         <v>0.1178</v>
       </c>
@@ -8459,105 +8439,116 @@
         <v>2.1453241233272657</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C89" s="21"/>
       <c r="H89" s="50" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D90" s="213" t="s">
         <v>170</v>
-      </c>
-      <c r="D90" s="213" t="s">
-        <v>171</v>
       </c>
       <c r="E90" s="213"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C91" s="174" t="s">
-        <v>230</v>
+        <v>192</v>
+      </c>
+      <c r="C91" s="172" t="s">
+        <v>225</v>
       </c>
       <c r="D91" s="207" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="E91" s="207"/>
       <c r="F91" s="29">
-        <f>E83/C68</f>
-        <v>0.15624904823762262</v>
-      </c>
-      <c r="H91" s="187"/>
-    </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <f>E86*Exchange_Rate/Dashboard!G3</f>
+        <v>2.8651591774052427E-2</v>
+      </c>
+      <c r="H91" s="185"/>
+    </row>
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (CN)</v>
       </c>
-      <c r="C92" s="176">
+      <c r="C92" s="174">
         <f>IF(C91="CN",Dashboard!C17,IF(C91="US",Dashboard!C12,IF(C91="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>0.1125</v>
       </c>
-      <c r="D92" s="207" t="s">
-        <v>168</v>
-      </c>
-      <c r="E92" s="207"/>
-      <c r="F92" s="137">
-        <v>0.02</v>
-      </c>
-      <c r="H92" s="187"/>
-    </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D92" s="196">
+        <v>5</v>
+      </c>
+      <c r="E92" s="94" t="s">
+        <v>227</v>
+      </c>
+      <c r="F92" s="197">
+        <f>FV(F91,D92,0,-(E86/C92))</f>
+        <v>0.56213595476359368</v>
+      </c>
+      <c r="H92" s="185"/>
+    </row>
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Data!E3&amp;Dashboard!H3</f>
         <v>Valuation in 1000HKD</v>
       </c>
-      <c r="D94" s="165" t="str">
+      <c r="C94" s="91"/>
+      <c r="D94" s="163" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E94" s="155" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
-        <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>863161.53994683642</v>
-      </c>
-      <c r="D95" s="155">
-        <f>C95*Data!$E$3/Common_Shares</f>
-        <v>0.64737107403874306</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <f>D95*Common_Shares/Data!E3</f>
+        <v>479648.07466418302</v>
+      </c>
+      <c r="D95" s="154">
+        <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
+        <v>0.35973601103113589</v>
+      </c>
+      <c r="E95" s="154">
+        <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
+        <v>0.30478585741424463</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
       <c r="C96" s="102">
-        <f>E82*Exchange_Rate</f>
-        <v>2398.1032528877258</v>
-      </c>
-      <c r="D96" s="155">
+        <f>E53*Exchange_Rate</f>
+        <v>4351.2651109695435</v>
+      </c>
+      <c r="D96" s="214">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>1.7985772148436424E-3</v>
-      </c>
-      <c r="E96" s="94"/>
-      <c r="F96" s="138"/>
-    </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>3.2634484252961043E-3</v>
+      </c>
+      <c r="E96" s="214"/>
+      <c r="F96" s="137"/>
+    </row>
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
@@ -8565,63 +8556,61 @@
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
         <v>2333714.5077104806</v>
       </c>
-      <c r="D97" s="156">
+      <c r="D97" s="215">
         <f>C97*Data!$E$3/Common_Shares</f>
         <v>1.7502856619971527</v>
       </c>
-      <c r="E97" s="157" t="s">
-        <v>143</v>
-      </c>
-      <c r="F97" s="158" t="s">
+      <c r="E97" s="215"/>
+      <c r="F97" s="156" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>3194477.9444044293</v>
+        <v>2809011.317263694</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>2.3958581588210524</v>
+        <v>2.1067582246029923</v>
       </c>
       <c r="E98" s="124">
-        <f>D98*(1-25%)</f>
-        <v>1.7968936191157892</v>
+        <f>E95*Exchange_Rate-D96+D97</f>
+        <v>2.0794041854223679</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>2.9948226985263156</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2.6334477807537402</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D100" s="165" t="str">
+        <v>177</v>
+      </c>
+      <c r="D100" s="163" t="str">
         <f>D94</f>
         <v>HKD</v>
       </c>
-      <c r="E100" s="157" t="s">
+      <c r="E100" s="155" t="s">
         <v>143</v>
       </c>
-      <c r="F100" s="158" t="s">
+      <c r="F100" s="156" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
         <v>1851761.2739762594</v>
       </c>
-      <c r="D101" s="155">
-        <f>E87/(C92-F92)*Exchange_Rate</f>
+      <c r="D101" s="154">
+        <f>E87/(C92-2%)*Exchange_Rate</f>
         <v>1.3888207818795968</v>
       </c>
       <c r="E101" s="124">
@@ -8633,53 +8622,55 @@
         <v>1.7360259773494959</v>
       </c>
     </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D103" s="197" t="str">
+        <v>219</v>
+      </c>
+      <c r="D103" s="195" t="str">
         <f>D100</f>
         <v>HKD</v>
       </c>
-      <c r="E103" s="157" t="s">
+      <c r="E103" s="155" t="s">
         <v>143</v>
       </c>
-      <c r="F103" s="158" t="s">
+      <c r="F103" s="156" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B104" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>2523119.6091903448</v>
-      </c>
-      <c r="D104" s="155">
+        <v>2330386.2956199767</v>
+      </c>
+      <c r="D104" s="154">
         <f>(D98+D101)/2</f>
-        <v>1.8923394703503247</v>
+        <v>1.7477895032412945</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>1.4192546027627435</v>
+        <v>1.3108421274309707</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>2.3654243379379061</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2.1847368790516182</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C106" s="166" t="s">
-        <v>231</v>
+        <v>180</v>
+      </c>
+      <c r="C106" s="164" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D92:E92"/>
+  <mergeCells count="10">
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="E73:F73"/>
@@ -8687,35 +8678,29 @@
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C86:C87">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
+    <cfRule type="containsBlanks" dxfId="3" priority="5">
       <formula>LEN(TRIM(C86))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C106">
-    <cfRule type="containsBlanks" dxfId="3" priority="2">
+    <cfRule type="containsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(C106))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:E82 F84">
-    <cfRule type="containsBlanks" dxfId="2" priority="9">
+    <cfRule type="containsBlanks" dxfId="1" priority="9">
       <formula>LEN(TRIM(E74))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="containsBlanks" dxfId="1" priority="4">
+    <cfRule type="containsBlanks" dxfId="0" priority="4">
       <formula>LEN(TRIM(E87))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F92">
-    <cfRule type="containsBlanks" dxfId="0" priority="7">
-      <formula>LEN(TRIM(F92))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation allowBlank="1" sqref="D52" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F35:F37 F19:F20" xr:uid="{DBDA56F9-BDA2-428A-9035-F60711F90E5E}">
       <formula1>"Y,N"</formula1>

--- a/financial_models/opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336B0FD4-1DC6-474C-B8E5-A3C009A4ED29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84610EA7-3EC6-3C45-85F9-89E44D7F4337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="17120" windowHeight="10760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -809,18 +820,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1282,10 +1293,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1338,8 +1349,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1362,14 +1373,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1394,7 +1405,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1411,7 +1422,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1419,7 +1430,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1466,7 +1477,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1540,7 +1551,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1616,7 +1627,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1627,16 +1638,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1700,7 +1711,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1709,10 +1720,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1730,13 +1741,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1750,21 +1761,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1772,24 +1788,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -2112,19 +2116,19 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2133,7 +2137,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2148,7 +2152,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>216</v>
       </c>
@@ -2161,13 +2165,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="169">
-        <v>2.0899999141693115</v>
+        <v>2.0499999523162842</v>
       </c>
       <c r="H3" s="171" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
         <v>217</v>
       </c>
@@ -2185,7 +2189,7 @@
       <c r="H4" s="206"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
@@ -2199,13 +2203,13 @@
       </c>
       <c r="G5" s="198">
         <f>G3*G4/1000000</f>
-        <v>2786.6669005590679</v>
+        <v>2733.3336114217045</v>
       </c>
       <c r="H5" s="198"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2229,7 +2233,7 @@
       <c r="H6" s="199"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="93" t="s">
         <v>214</v>
       </c>
@@ -2244,15 +2248,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="170">
-        <v>1.0905426343282063</v>
+        <v>1.092014988263448</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="178" t="s">
         <v>212</v>
       </c>
@@ -2260,7 +2264,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>195</v>
       </c>
@@ -2271,7 +2275,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="146" t="s">
         <v>199</v>
       </c>
@@ -2285,7 +2289,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2293,23 +2297,23 @@
         <v>0.08</v>
       </c>
       <c r="D12" s="168">
-        <v>9.6250000000000002E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C14" s="168">
-        <v>2.0799999999999999E-2</v>
+        <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="125" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>207</v>
       </c>
@@ -2320,7 +2324,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="146" t="s">
         <v>208</v>
       </c>
@@ -2334,17 +2338,17 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="94" t="s">
         <v>201</v>
       </c>
       <c r="C17" s="192">
-        <v>0.1125</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="D17" s="187"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="183" t="s">
         <v>204</v>
       </c>
@@ -2353,11 +2357,11 @@
       </c>
       <c r="D19" s="94"/>
       <c r="E19" s="94"/>
-      <c r="F19" s="216"/>
-      <c r="G19" s="217"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="175" t="s">
         <v>185</v>
       </c>
@@ -2365,10 +2369,10 @@
         <f>Fin_Analysis!F75</f>
         <v>0.55541924442229906</v>
       </c>
-      <c r="F20" s="217"/>
-      <c r="G20" s="218"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F20" s="94"/>
+      <c r="G20" s="29"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="175" t="s">
         <v>186</v>
       </c>
@@ -2376,10 +2380,10 @@
         <f>Fin_Analysis!F77</f>
         <v>0.35722663926689097</v>
       </c>
-      <c r="F21" s="217"/>
-      <c r="G21" s="218"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F21" s="94"/>
+      <c r="G21" s="29"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="175" t="s">
         <v>187</v>
       </c>
@@ -2391,7 +2395,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="175" t="s">
         <v>188</v>
       </c>
@@ -2404,10 +2408,10 @@
       </c>
       <c r="G23" s="186">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.84408872103864507</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.82681763189448099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="175" t="s">
         <v>189</v>
       </c>
@@ -2420,10 +2424,10 @@
       </c>
       <c r="G24" s="180">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>2.8651591774052427E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>2.925008432738372E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="175" t="s">
         <v>213</v>
       </c>
@@ -2439,7 +2443,7 @@
         <v>2.1453241233272657</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="177" t="s">
         <v>191</v>
       </c>
@@ -2452,11 +2456,11 @@
       </c>
       <c r="G26" s="180">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>6.1466951004599722E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>6.2750911516893076E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2474,919 +2478,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>184</v>
       </c>
       <c r="C29" s="166">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>1.3108421274309707</v>
+        <v>1.5590190986369374</v>
       </c>
       <c r="D29" s="165">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>2.1847368790516182</v>
+        <v>2.5983651643948957</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>1.7477895032412945</v>
+        <v>2.0786921315159166</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3450,7 +3454,7 @@
       <selection pane="topRight" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3458,7 +3462,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3466,7 +3470,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3483,7 +3487,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3509,13 +3513,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="139" t="s">
         <v>146</v>
@@ -3565,7 +3569,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3593,7 +3597,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3644,7 +3648,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3672,7 +3676,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3723,7 +3727,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3751,7 +3755,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3802,7 +3806,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3824,7 +3828,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3875,7 +3879,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3893,7 +3897,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3915,7 +3919,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3937,7 +3941,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -3965,7 +3969,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -3987,7 +3991,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4038,7 +4042,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4089,7 +4093,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4140,7 +4144,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4191,7 +4195,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4242,7 +4246,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="138" t="s">
         <v>147</v>
@@ -4293,7 +4297,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4344,7 +4348,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4373,7 +4377,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4394,7 +4398,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4415,7 +4419,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4444,7 +4448,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4473,7 +4477,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4502,7 +4506,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4531,7 +4535,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4582,7 +4586,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4611,7 +4615,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4640,7 +4644,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4663,7 +4667,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4714,7 +4718,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>171</v>
@@ -4765,7 +4769,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4783,7 +4787,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4834,7 +4838,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4885,7 +4889,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4936,7 +4940,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -4987,7 +4991,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -5038,7 +5042,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -5089,7 +5093,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5140,7 +5144,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5158,7 +5162,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5209,7 +5213,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5260,7 +5264,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5277,7 +5281,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5327,7 +5331,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5377,7 +5381,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5427,7 +5431,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5477,1260 +5481,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6769,20 +6773,20 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
     <col min="3" max="6" width="15.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6798,7 +6802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6821,7 +6825,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6837,7 +6841,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6852,18 +6856,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>2329363.2425995111</v>
+        <v>2332508.1422383604</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.23054556924158254</v>
+        <v>0.22950672011871986</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6877,14 +6881,14 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>1.9052022070185468</v>
+        <v>1.9103501498843463</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -6900,13 +6904,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6925,7 +6929,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6950,7 +6954,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -6973,7 +6977,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -6998,7 +7002,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -7021,7 +7025,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7044,7 +7048,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7069,7 +7073,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>172</v>
       </c>
@@ -7089,7 +7093,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7109,7 +7113,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7128,7 +7132,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7150,7 +7154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7174,7 +7178,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7193,7 +7197,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7217,7 +7221,7 @@
         <v>598515</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7226,7 +7230,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7248,7 +7252,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7277,7 +7281,7 @@
         <v>4.2936640732370153</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7310,7 +7314,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7343,7 +7347,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7372,7 +7376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7384,7 +7388,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7405,7 +7409,7 @@
       <c r="I30" s="63"/>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7429,7 +7433,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7451,7 +7455,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>173</v>
       </c>
@@ -7476,7 +7480,7 @@
       <c r="I33" s="144"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7501,7 +7505,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7524,7 +7528,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7548,7 +7552,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7572,7 +7576,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7591,7 +7595,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7610,7 +7614,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7629,7 +7633,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7648,7 +7652,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7670,7 +7674,7 @@
         <v>10363</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7679,7 +7683,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7698,7 +7702,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7717,7 +7721,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7747,7 +7751,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7777,7 +7781,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7803,7 +7807,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7830,20 +7834,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7860,7 +7864,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7881,7 +7885,7 @@
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7890,7 +7894,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7901,22 +7905,22 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
       <c r="C56" s="94"/>
-      <c r="D56" s="211">
+      <c r="D56" s="212">
         <f>I15+I34</f>
         <v>33999</v>
       </c>
-      <c r="E56" s="212"/>
+      <c r="E56" s="213"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7931,7 +7935,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7945,7 +7949,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7954,7 +7958,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -7968,7 +7972,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -7989,7 +7993,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -8010,7 +8014,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -8031,7 +8035,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="145" t="s">
         <v>164</v>
       </c>
@@ -8046,7 +8050,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -8067,7 +8071,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -8077,7 +8081,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -8091,7 +8095,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -8112,7 +8116,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="145" t="s">
         <v>165</v>
       </c>
@@ -8127,7 +8131,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8148,35 +8152,35 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="209">
+      <c r="C72" s="210">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="209"/>
+      <c r="D72" s="210"/>
       <c r="H72" s="50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="208" t="s">
+      <c r="C73" s="209" t="s">
         <v>103</v>
       </c>
-      <c r="D73" s="208"/>
-      <c r="E73" s="210" t="s">
+      <c r="D73" s="209"/>
+      <c r="E73" s="211" t="s">
         <v>104</v>
       </c>
-      <c r="F73" s="208"/>
-    </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F73" s="209"/>
+    </row>
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8191,7 +8195,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8212,7 +8216,7 @@
         <v>0.55541924442229906</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8227,7 +8231,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8248,7 +8252,7 @@
         <v>0.35722663926689097</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8263,7 +8267,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8284,7 +8288,7 @@
         <v>6.208277497005729E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8305,7 +8309,7 @@
         <v>2.4949477045225803E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8329,7 +8333,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="79" t="s">
         <v>190</v>
       </c>
@@ -8350,7 +8354,7 @@
         <v>1.3611168709786237E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8371,7 +8375,7 @@
         <v>6.0422694644905017E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8382,7 +8386,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="93" t="s">
         <v>179</v>
       </c>
@@ -8403,7 +8407,7 @@
         <v>4.5317020983678763E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="94" t="s">
         <v>174</v>
       </c>
@@ -8418,7 +8422,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="93" t="s">
         <v>175</v>
       </c>
@@ -8439,11 +8443,11 @@
         <v>2.1453241233272657</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>168</v>
@@ -8453,41 +8457,41 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D90" s="213" t="s">
+      <c r="D90" s="214" t="s">
         <v>170</v>
       </c>
-      <c r="E90" s="213"/>
+      <c r="E90" s="214"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>192</v>
       </c>
       <c r="C91" s="172" t="s">
         <v>225</v>
       </c>
-      <c r="D91" s="207" t="s">
+      <c r="D91" s="215" t="s">
         <v>228</v>
       </c>
-      <c r="E91" s="207"/>
+      <c r="E91" s="215"/>
       <c r="F91" s="29">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8651591774052427E-2</v>
+        <v>2.925008432738372E-2</v>
       </c>
       <c r="H91" s="185"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (CN)</v>
       </c>
       <c r="C92" s="174">
         <f>IF(C91="CN",Dashboard!C17,IF(C91="US",Dashboard!C12,IF(C91="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>0.1125</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="D92" s="196">
         <v>5</v>
@@ -8497,11 +8501,11 @@
       </c>
       <c r="F92" s="197">
         <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>0.56213595476359368</v>
+        <v>0.72073275250460556</v>
       </c>
       <c r="H92" s="185"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Data!E3&amp;Dashboard!H3</f>
@@ -8516,77 +8520,77 @@
         <v>229</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
         <f>D95*Common_Shares/Data!E3</f>
-        <v>479648.07466418302</v>
+        <v>688330.75043960172</v>
       </c>
       <c r="D95" s="154">
         <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>0.35973601103113589</v>
+        <v>0.51624799829870149</v>
       </c>
       <c r="E95" s="154">
         <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>0.30478585741424463</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.39130343091654363</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
       <c r="C96" s="102">
         <f>E53*Exchange_Rate</f>
-        <v>4351.2651109695435</v>
-      </c>
-      <c r="D96" s="214">
+        <v>4357.1398031711578</v>
+      </c>
+      <c r="D96" s="207">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>3.2634484252961043E-3</v>
-      </c>
-      <c r="E96" s="214"/>
+        <v>3.2678544438965629E-3</v>
+      </c>
+      <c r="E96" s="207"/>
       <c r="F96" s="137"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>2333714.5077104806</v>
-      </c>
-      <c r="D97" s="215">
+        <v>2336865.2820415315</v>
+      </c>
+      <c r="D97" s="208">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>1.7502856619971527</v>
-      </c>
-      <c r="E97" s="215"/>
+        <v>1.7526487424500559</v>
+      </c>
+      <c r="E97" s="208"/>
       <c r="F97" s="156" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>2809011.317263694</v>
+        <v>3020838.8926779618</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>2.1067582246029923</v>
+        <v>2.2656288863048606</v>
       </c>
       <c r="E98" s="124">
         <f>E95*Exchange_Rate-D96+D97</f>
-        <v>2.0794041854223679</v>
+        <v>2.1766900995259357</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>2.6334477807537402</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>2.8320361078810756</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="10" t="s">
         <v>177</v>
       </c>
@@ -8601,28 +8605,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>1851761.2739762594</v>
+        <v>2522340.8175951932</v>
       </c>
       <c r="D101" s="154">
         <f>E87/(C92-2%)*Exchange_Rate</f>
-        <v>1.3888207818795968</v>
+        <v>1.891755376726973</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>1.0416155864096976</v>
+        <v>1.4188165325452298</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>1.7360259773494959</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>2.3646942209087163</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="10" t="s">
         <v>219</v>
       </c>
@@ -8637,28 +8641,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>2330386.2956199767</v>
+        <v>2771589.855136577</v>
       </c>
       <c r="D104" s="154">
         <f>(D98+D101)/2</f>
-        <v>1.7477895032412945</v>
+        <v>2.0786921315159166</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>1.3108421274309707</v>
+        <v>1.5590190986369374</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>2.1847368790516182</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>2.5983651643948957</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="10" t="s">
         <v>180</v>
       </c>
@@ -8668,16 +8672,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D90:E90"/>
     <mergeCell ref="D91:E91"/>
     <mergeCell ref="D96:E96"/>
     <mergeCell ref="D97:E97"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="E73:F73"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D90:E90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C86:C87">

--- a/financial_models/opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84610EA7-3EC6-3C45-85F9-89E44D7F4337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBC18642-89E2-4373-BACD-C84CB21B4184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="17120" windowHeight="10760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -820,18 +809,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1293,7 +1282,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="216">
@@ -1349,8 +1338,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1373,14 +1362,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1405,7 +1394,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1422,7 +1411,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1430,7 +1419,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1477,7 +1466,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1551,7 +1540,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1627,7 +1616,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1638,16 +1627,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1711,7 +1700,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1720,10 +1709,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1741,13 +1730,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1761,26 +1750,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1789,11 +1763,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -2116,19 +2105,19 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2137,7 +2126,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2152,7 +2141,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>216</v>
       </c>
@@ -2165,13 +2154,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="169">
-        <v>2.0499999523162842</v>
+        <v>2.0099999904632568</v>
       </c>
       <c r="H3" s="171" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="35" t="s">
         <v>217</v>
       </c>
@@ -2189,7 +2178,7 @@
       <c r="H4" s="206"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
@@ -2203,13 +2192,13 @@
       </c>
       <c r="G5" s="198">
         <f>G3*G4/1000000</f>
-        <v>2733.3336114217045</v>
+        <v>2680.0003222843407</v>
       </c>
       <c r="H5" s="198"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2233,7 +2222,7 @@
       <c r="H6" s="199"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93" t="s">
         <v>214</v>
       </c>
@@ -2248,15 +2237,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="170">
-        <v>1.092014988263448</v>
+        <v>1.0876400073369343</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="178" t="s">
         <v>212</v>
       </c>
@@ -2264,7 +2253,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>195</v>
       </c>
@@ -2275,7 +2264,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="146" t="s">
         <v>199</v>
       </c>
@@ -2289,7 +2278,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2301,8 +2290,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>196</v>
       </c>
@@ -2313,7 +2302,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>207</v>
       </c>
@@ -2324,7 +2313,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="146" t="s">
         <v>208</v>
       </c>
@@ -2338,7 +2327,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="94" t="s">
         <v>201</v>
       </c>
@@ -2347,8 +2336,8 @@
       </c>
       <c r="D17" s="187"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="183" t="s">
         <v>204</v>
       </c>
@@ -2361,7 +2350,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="175" t="s">
         <v>185</v>
       </c>
@@ -2372,7 +2361,7 @@
       <c r="F20" s="94"/>
       <c r="G20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="175" t="s">
         <v>186</v>
       </c>
@@ -2383,7 +2372,7 @@
       <c r="F21" s="94"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="175" t="s">
         <v>187</v>
       </c>
@@ -2395,7 +2384,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="175" t="s">
         <v>188</v>
       </c>
@@ -2408,10 +2397,10 @@
       </c>
       <c r="G23" s="186">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.82681763189448099</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.81394556080913849</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="175" t="s">
         <v>189</v>
       </c>
@@ -2424,10 +2413,10 @@
       </c>
       <c r="G24" s="180">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>2.925008432738372E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2.9712657235011673E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="175" t="s">
         <v>213</v>
       </c>
@@ -2443,7 +2432,7 @@
         <v>2.1453241233272657</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="177" t="s">
         <v>191</v>
       </c>
@@ -2456,11 +2445,11 @@
       </c>
       <c r="G26" s="180">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>6.2750911516893076E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6.3743280334424945E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2478,919 +2467,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
         <v>184</v>
       </c>
       <c r="C29" s="166">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>1.5590190986369374</v>
+        <v>1.5532068179775327</v>
       </c>
       <c r="D29" s="165">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>2.5983651643948957</v>
+        <v>2.5886780299625545</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>2.0786921315159166</v>
+        <v>2.0709424239700436</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3454,7 +3443,7 @@
       <selection pane="topRight" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3462,7 +3451,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3470,7 +3459,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3487,7 +3476,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3513,13 +3502,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="139" t="s">
         <v>146</v>
@@ -3569,7 +3558,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3597,7 +3586,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3648,7 +3637,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3676,7 +3665,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3727,7 +3716,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3755,7 +3744,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3806,7 +3795,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3828,7 +3817,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3879,7 +3868,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3897,7 +3886,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3919,7 +3908,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3941,7 +3930,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -3969,7 +3958,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -3991,7 +3980,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4042,7 +4031,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4093,7 +4082,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4144,7 +4133,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4195,7 +4184,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4246,7 +4235,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="138" t="s">
         <v>147</v>
@@ -4297,7 +4286,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4348,7 +4337,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4377,7 +4366,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4398,7 +4387,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4419,7 +4408,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4448,7 +4437,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4477,7 +4466,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4506,7 +4495,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4535,7 +4524,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4586,7 +4575,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4615,7 +4604,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4644,7 +4633,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4667,7 +4656,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4718,7 +4707,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>171</v>
@@ -4769,7 +4758,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4787,7 +4776,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4838,7 +4827,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4889,7 +4878,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4940,7 +4929,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -4991,7 +4980,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -5042,7 +5031,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -5093,7 +5082,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5144,7 +5133,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5162,7 +5151,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5213,7 +5202,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5264,7 +5253,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5281,7 +5270,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5331,7 +5320,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5381,7 +5370,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5431,7 +5420,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5481,1260 +5470,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6773,7 +6762,7 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -6782,11 +6771,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6802,7 +6791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6825,7 +6814,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6841,7 +6830,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6856,18 +6845,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>2332508.1422383604</v>
+        <v>2323163.3266974506</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.22950672011871986</v>
+        <v>0.23259357647116607</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6881,14 +6870,14 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>1.9103501498843463</v>
+        <v>1.8950737963863593</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -6904,13 +6893,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6929,7 +6918,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6954,7 +6943,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -6977,7 +6966,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -7002,7 +6991,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -7025,7 +7014,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7048,7 +7037,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7073,7 +7062,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>172</v>
       </c>
@@ -7093,7 +7082,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7113,7 +7102,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7132,7 +7121,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7154,7 +7143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7178,7 +7167,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7197,7 +7186,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7221,7 +7210,7 @@
         <v>598515</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7230,7 +7219,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7252,7 +7241,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7281,7 +7270,7 @@
         <v>4.2936640732370153</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7314,7 +7303,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7347,7 +7336,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7376,7 +7365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7388,7 +7377,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7409,7 +7398,7 @@
       <c r="I30" s="63"/>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7433,7 +7422,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7455,7 +7444,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>173</v>
       </c>
@@ -7480,7 +7469,7 @@
       <c r="I33" s="144"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7505,7 +7494,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7528,7 +7517,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7552,7 +7541,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7576,7 +7565,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7595,7 +7584,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7614,7 +7603,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7633,7 +7622,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7652,7 +7641,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7674,7 +7663,7 @@
         <v>10363</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7683,7 +7672,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7702,7 +7691,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7721,7 +7710,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7751,7 +7740,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7781,7 +7770,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7807,7 +7796,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7834,20 +7823,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7864,7 +7853,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7885,7 +7874,7 @@
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7894,7 +7883,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7905,22 +7894,22 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
       <c r="C56" s="94"/>
-      <c r="D56" s="212">
+      <c r="D56" s="207">
         <f>I15+I34</f>
         <v>33999</v>
       </c>
-      <c r="E56" s="213"/>
+      <c r="E56" s="208"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7935,7 +7924,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7949,7 +7938,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7958,7 +7947,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -7972,7 +7961,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -7993,7 +7982,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -8014,7 +8003,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -8035,7 +8024,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="145" t="s">
         <v>164</v>
       </c>
@@ -8050,7 +8039,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -8071,7 +8060,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -8081,7 +8070,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -8095,7 +8084,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -8116,7 +8105,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="145" t="s">
         <v>165</v>
       </c>
@@ -8131,7 +8120,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8152,35 +8141,35 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="210">
+      <c r="C72" s="214">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="210"/>
+      <c r="D72" s="214"/>
       <c r="H72" s="50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="209" t="s">
+      <c r="C73" s="213" t="s">
         <v>103</v>
       </c>
-      <c r="D73" s="209"/>
-      <c r="E73" s="211" t="s">
+      <c r="D73" s="213"/>
+      <c r="E73" s="215" t="s">
         <v>104</v>
       </c>
-      <c r="F73" s="209"/>
-    </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F73" s="213"/>
+    </row>
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8195,7 +8184,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8216,7 +8205,7 @@
         <v>0.55541924442229906</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8231,7 +8220,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8252,7 +8241,7 @@
         <v>0.35722663926689097</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8267,7 +8256,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8288,7 +8277,7 @@
         <v>6.208277497005729E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8309,7 +8298,7 @@
         <v>2.4949477045225803E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8333,7 +8322,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="79" t="s">
         <v>190</v>
       </c>
@@ -8354,7 +8343,7 @@
         <v>1.3611168709786237E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8375,7 +8364,7 @@
         <v>6.0422694644905017E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8386,7 +8375,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="93" t="s">
         <v>179</v>
       </c>
@@ -8407,7 +8396,7 @@
         <v>4.5317020983678763E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="94" t="s">
         <v>174</v>
       </c>
@@ -8422,7 +8411,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="93" t="s">
         <v>175</v>
       </c>
@@ -8443,11 +8432,11 @@
         <v>2.1453241233272657</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>168</v>
@@ -8457,34 +8446,34 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D90" s="214" t="s">
+      <c r="D90" s="209" t="s">
         <v>170</v>
       </c>
-      <c r="E90" s="214"/>
+      <c r="E90" s="209"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
         <v>192</v>
       </c>
       <c r="C91" s="172" t="s">
         <v>225</v>
       </c>
-      <c r="D91" s="215" t="s">
+      <c r="D91" s="210" t="s">
         <v>228</v>
       </c>
-      <c r="E91" s="215"/>
+      <c r="E91" s="210"/>
       <c r="F91" s="29">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.925008432738372E-2</v>
+        <v>2.9712657235011673E-2</v>
       </c>
       <c r="H91" s="185"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (CN)</v>
@@ -8501,11 +8490,11 @@
       </c>
       <c r="F92" s="197">
         <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>0.72073275250460556</v>
+        <v>0.72235379317809345</v>
       </c>
       <c r="H92" s="185"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Data!E3&amp;Dashboard!H3</f>
@@ -8520,77 +8509,77 @@
         <v>229</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
         <f>D95*Common_Shares/Data!E3</f>
-        <v>688330.75043960172</v>
+        <v>687115.02597229776</v>
       </c>
       <c r="D95" s="154">
         <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>0.51624799829870149</v>
+        <v>0.51533620506219768</v>
       </c>
       <c r="E95" s="154">
         <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>0.39130343091654363</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.39061231381215533</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
       <c r="C96" s="102">
         <f>E53*Exchange_Rate</f>
-        <v>4357.1398031711578</v>
-      </c>
-      <c r="D96" s="207">
+        <v>4339.6836292743683</v>
+      </c>
+      <c r="D96" s="211">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>3.2678544438965629E-3</v>
-      </c>
-      <c r="E96" s="207"/>
+        <v>3.2547623151104868E-3</v>
+      </c>
+      <c r="E96" s="211"/>
       <c r="F96" s="137"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>2336865.2820415315</v>
-      </c>
-      <c r="D97" s="208">
+        <v>2327503.010326725</v>
+      </c>
+      <c r="D97" s="212">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>1.7526487424500559</v>
-      </c>
-      <c r="E97" s="208"/>
+        <v>1.7456270395416638</v>
+      </c>
+      <c r="E97" s="212"/>
       <c r="F97" s="156" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>3020838.8926779618</v>
+        <v>3010278.3526697485</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>2.2656288863048606</v>
+        <v>2.2577084822887508</v>
       </c>
       <c r="E98" s="124">
         <f>E95*Exchange_Rate-D96+D97</f>
-        <v>2.1766900995259357</v>
+        <v>2.1672178570871026</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>2.8320361078810756</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2.8221356028609383</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10" t="s">
         <v>177</v>
       </c>
@@ -8605,28 +8594,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>2522340.8175951932</v>
+        <v>2512235.468231176</v>
       </c>
       <c r="D101" s="154">
         <f>E87/(C92-2%)*Exchange_Rate</f>
-        <v>1.891755376726973</v>
+        <v>1.8841763656513362</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>1.4188165325452298</v>
+        <v>1.4131322742385022</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>2.3646942209087163</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2.3552204570641702</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
         <v>219</v>
       </c>
@@ -8641,28 +8630,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B104" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>2771589.855136577</v>
+        <v>2761256.9104504618</v>
       </c>
       <c r="D104" s="154">
         <f>(D98+D101)/2</f>
-        <v>2.0786921315159166</v>
+        <v>2.0709424239700436</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>1.5590190986369374</v>
+        <v>1.5532068179775327</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>2.5983651643948957</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2.5886780299625545</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="10" t="s">
         <v>180</v>
       </c>
@@ -8672,16 +8661,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E73:F73"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D90:E90"/>
     <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E73:F73"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C86:C87">

--- a/financial_models/opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBC18642-89E2-4373-BACD-C84CB21B4184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8D961BB-C49F-7D48-BD87-2A73088CCBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1480" yWindow="1480" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -809,18 +820,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1282,7 +1293,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="216">
@@ -1338,8 +1349,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1362,14 +1373,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1394,7 +1405,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1411,7 +1422,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1419,7 +1430,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1466,7 +1477,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1540,7 +1551,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1616,7 +1627,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1627,16 +1638,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1700,7 +1711,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1709,10 +1720,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1730,13 +1741,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1750,11 +1761,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1763,26 +1789,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -2105,19 +2116,19 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2126,7 +2137,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2141,7 +2152,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>216</v>
       </c>
@@ -2154,13 +2165,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="169">
-        <v>2.0099999904632568</v>
+        <v>2.0199999809265137</v>
       </c>
       <c r="H3" s="171" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
         <v>217</v>
       </c>
@@ -2178,7 +2189,7 @@
       <c r="H4" s="206"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
@@ -2192,13 +2203,13 @@
       </c>
       <c r="G5" s="198">
         <f>G3*G4/1000000</f>
-        <v>2680.0003222843407</v>
+        <v>2693.3336445686818</v>
       </c>
       <c r="H5" s="198"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2222,7 +2233,7 @@
       <c r="H6" s="199"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="93" t="s">
         <v>214</v>
       </c>
@@ -2237,15 +2248,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="170">
-        <v>1.0876400073369343</v>
+        <v>1.0866400003433228</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="178" t="s">
         <v>212</v>
       </c>
@@ -2253,7 +2264,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>195</v>
       </c>
@@ -2264,7 +2275,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="146" t="s">
         <v>199</v>
       </c>
@@ -2278,7 +2289,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2290,8 +2301,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>196</v>
       </c>
@@ -2302,7 +2313,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>207</v>
       </c>
@@ -2313,7 +2324,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="146" t="s">
         <v>208</v>
       </c>
@@ -2327,7 +2338,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="94" t="s">
         <v>201</v>
       </c>
@@ -2336,8 +2347,8 @@
       </c>
       <c r="D17" s="187"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="183" t="s">
         <v>204</v>
       </c>
@@ -2350,7 +2361,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="175" t="s">
         <v>185</v>
       </c>
@@ -2361,7 +2372,7 @@
       <c r="F20" s="94"/>
       <c r="G20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="175" t="s">
         <v>186</v>
       </c>
@@ -2372,7 +2383,7 @@
       <c r="F21" s="94"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="175" t="s">
         <v>187</v>
       </c>
@@ -2384,7 +2395,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="175" t="s">
         <v>188</v>
       </c>
@@ -2397,10 +2408,10 @@
       </c>
       <c r="G23" s="186">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.81394556080913849</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.81874781727523227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="175" t="s">
         <v>189</v>
       </c>
@@ -2413,10 +2424,10 @@
       </c>
       <c r="G24" s="180">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>2.9712657235011673E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>2.9538381594428561E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="175" t="s">
         <v>213</v>
       </c>
@@ -2432,7 +2443,7 @@
         <v>2.1453241233272657</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="177" t="s">
         <v>191</v>
       </c>
@@ -2445,11 +2456,11 @@
       </c>
       <c r="G26" s="180">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>6.3743280334424945E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>6.3369402598573682E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2467,919 +2478,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>184</v>
       </c>
       <c r="C29" s="166">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>1.5532068179775327</v>
+        <v>1.5516154256455592</v>
       </c>
       <c r="D29" s="165">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>2.5886780299625545</v>
+        <v>2.5860257094092653</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>2.0709424239700436</v>
+        <v>2.0688205675274123</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3443,7 +3454,7 @@
       <selection pane="topRight" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3451,7 +3462,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3459,7 +3470,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3476,7 +3487,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3502,13 +3513,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="139" t="s">
         <v>146</v>
@@ -3558,7 +3569,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3586,7 +3597,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3637,7 +3648,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3665,7 +3676,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3716,7 +3727,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3744,7 +3755,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3795,7 +3806,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3817,7 +3828,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3868,7 +3879,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3886,7 +3897,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3908,7 +3919,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3930,7 +3941,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -3958,7 +3969,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -3980,7 +3991,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4031,7 +4042,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4082,7 +4093,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4133,7 +4144,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4184,7 +4195,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4235,7 +4246,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="138" t="s">
         <v>147</v>
@@ -4286,7 +4297,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4337,7 +4348,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4366,7 +4377,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4387,7 +4398,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4408,7 +4419,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4437,7 +4448,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4466,7 +4477,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4495,7 +4506,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4524,7 +4535,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4575,7 +4586,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4604,7 +4615,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4633,7 +4644,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4656,7 +4667,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4707,7 +4718,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>171</v>
@@ -4758,7 +4769,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4776,7 +4787,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4827,7 +4838,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4878,7 +4889,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4929,7 +4940,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -4980,7 +4991,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -5031,7 +5042,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -5082,7 +5093,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5133,7 +5144,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5151,7 +5162,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5202,7 +5213,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5253,7 +5264,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5270,7 +5281,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5320,7 +5331,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5370,7 +5381,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5420,7 +5431,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5470,1260 +5481,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6762,7 +6773,7 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -6771,11 +6782,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6791,7 +6802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6814,7 +6825,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6830,7 +6841,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6845,18 +6856,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>2323163.3266974506</v>
+        <v>2321027.3446093262</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.23259357647116607</v>
+        <v>0.23329915164796589</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6870,14 +6881,14 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>1.8950737963863593</v>
+        <v>1.8915906294585263</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -6893,13 +6904,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6918,7 +6929,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6943,7 +6954,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -6966,7 +6977,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -6991,7 +7002,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -7014,7 +7025,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7037,7 +7048,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7062,7 +7073,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>172</v>
       </c>
@@ -7082,7 +7093,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7102,7 +7113,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7121,7 +7132,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7143,7 +7154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7167,7 +7178,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7186,7 +7197,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7210,7 +7221,7 @@
         <v>598515</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7219,7 +7230,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7241,7 +7252,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7270,7 +7281,7 @@
         <v>4.2936640732370153</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7303,7 +7314,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7336,7 +7347,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7365,7 +7376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7377,7 +7388,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7398,7 +7409,7 @@
       <c r="I30" s="63"/>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7422,7 +7433,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7444,7 +7455,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>173</v>
       </c>
@@ -7469,7 +7480,7 @@
       <c r="I33" s="144"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7494,7 +7505,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7517,7 +7528,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7541,7 +7552,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7565,7 +7576,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7584,7 +7595,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7603,7 +7614,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7622,7 +7633,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7641,7 +7652,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7663,7 +7674,7 @@
         <v>10363</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7672,7 +7683,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7691,7 +7702,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7710,7 +7721,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7740,7 +7751,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7770,7 +7781,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7796,7 +7807,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7823,20 +7834,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7853,7 +7864,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7874,7 +7885,7 @@
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7883,7 +7894,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7894,22 +7905,22 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
       <c r="C56" s="94"/>
-      <c r="D56" s="207">
+      <c r="D56" s="212">
         <f>I15+I34</f>
         <v>33999</v>
       </c>
-      <c r="E56" s="208"/>
+      <c r="E56" s="213"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7924,7 +7935,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7938,7 +7949,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7947,7 +7958,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -7961,7 +7972,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -7982,7 +7993,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -8003,7 +8014,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -8024,7 +8035,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="145" t="s">
         <v>164</v>
       </c>
@@ -8039,7 +8050,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -8060,7 +8071,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -8070,7 +8081,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -8084,7 +8095,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -8105,7 +8116,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="145" t="s">
         <v>165</v>
       </c>
@@ -8120,7 +8131,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8141,35 +8152,35 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="214">
+      <c r="C72" s="210">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="214"/>
+      <c r="D72" s="210"/>
       <c r="H72" s="50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="213" t="s">
+      <c r="C73" s="209" t="s">
         <v>103</v>
       </c>
-      <c r="D73" s="213"/>
-      <c r="E73" s="215" t="s">
+      <c r="D73" s="209"/>
+      <c r="E73" s="211" t="s">
         <v>104</v>
       </c>
-      <c r="F73" s="213"/>
-    </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F73" s="209"/>
+    </row>
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8184,7 +8195,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8205,7 +8216,7 @@
         <v>0.55541924442229906</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8220,7 +8231,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8241,7 +8252,7 @@
         <v>0.35722663926689097</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8256,7 +8267,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8277,7 +8288,7 @@
         <v>6.208277497005729E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8298,7 +8309,7 @@
         <v>2.4949477045225803E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8322,7 +8333,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="79" t="s">
         <v>190</v>
       </c>
@@ -8343,7 +8354,7 @@
         <v>1.3611168709786237E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8364,7 +8375,7 @@
         <v>6.0422694644905017E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8375,7 +8386,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="93" t="s">
         <v>179</v>
       </c>
@@ -8396,7 +8407,7 @@
         <v>4.5317020983678763E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="94" t="s">
         <v>174</v>
       </c>
@@ -8411,7 +8422,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="93" t="s">
         <v>175</v>
       </c>
@@ -8432,11 +8443,11 @@
         <v>2.1453241233272657</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>168</v>
@@ -8446,34 +8457,34 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D90" s="209" t="s">
+      <c r="D90" s="214" t="s">
         <v>170</v>
       </c>
-      <c r="E90" s="209"/>
+      <c r="E90" s="214"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>192</v>
       </c>
       <c r="C91" s="172" t="s">
         <v>225</v>
       </c>
-      <c r="D91" s="210" t="s">
+      <c r="D91" s="215" t="s">
         <v>228</v>
       </c>
-      <c r="E91" s="210"/>
+      <c r="E91" s="215"/>
       <c r="F91" s="29">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9712657235011673E-2</v>
+        <v>2.9538381594428561E-2</v>
       </c>
       <c r="H91" s="185"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (CN)</v>
@@ -8490,11 +8501,11 @@
       </c>
       <c r="F92" s="197">
         <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>0.72235379317809345</v>
+        <v>0.72174271947789603</v>
       </c>
       <c r="H92" s="185"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Data!E3&amp;Dashboard!H3</f>
@@ -8509,77 +8520,77 @@
         <v>229</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
         <f>D95*Common_Shares/Data!E3</f>
-        <v>687115.02597229776</v>
+        <v>685902.54387028702</v>
       </c>
       <c r="D95" s="154">
         <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>0.51533620506219768</v>
+        <v>0.51442684359935986</v>
       </c>
       <c r="E95" s="154">
         <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>0.39061231381215533</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.38992303993308097</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
       <c r="C96" s="102">
         <f>E53*Exchange_Rate</f>
-        <v>4339.6836292743683</v>
-      </c>
-      <c r="D96" s="211">
+        <v>4335.6936013698578</v>
+      </c>
+      <c r="D96" s="207">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>3.2547623151104868E-3</v>
-      </c>
-      <c r="E96" s="211"/>
+        <v>3.251769794556169E-3</v>
+      </c>
+      <c r="E96" s="207"/>
       <c r="F96" s="137"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>2327503.010326725</v>
-      </c>
-      <c r="D97" s="212">
+        <v>2325363.0382106961</v>
+      </c>
+      <c r="D97" s="208">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>1.7456270395416638</v>
-      </c>
-      <c r="E97" s="212"/>
+        <v>1.7440220606552645</v>
+      </c>
+      <c r="E97" s="208"/>
       <c r="F97" s="156" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>3010278.3526697485</v>
+        <v>3006929.8884796132</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>2.2577084822887508</v>
+        <v>2.2551971344600683</v>
       </c>
       <c r="E98" s="124">
         <f>E95*Exchange_Rate-D96+D97</f>
-        <v>2.1672178570871026</v>
+        <v>2.1644762631074608</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>2.8221356028609383</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>2.8189964180750855</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="10" t="s">
         <v>177</v>
       </c>
@@ -8594,28 +8605,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>2512235.468231176</v>
+        <v>2509925.6478670081</v>
       </c>
       <c r="D101" s="154">
         <f>E87/(C92-2%)*Exchange_Rate</f>
-        <v>1.8841763656513362</v>
+        <v>1.882444000594756</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>1.4131322742385022</v>
+        <v>1.4118330004460671</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>2.3552204570641702</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>2.3530550007434452</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="10" t="s">
         <v>219</v>
       </c>
@@ -8630,28 +8641,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>2761256.9104504618</v>
+        <v>2758427.7681733109</v>
       </c>
       <c r="D104" s="154">
         <f>(D98+D101)/2</f>
-        <v>2.0709424239700436</v>
+        <v>2.0688205675274123</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>1.5532068179775327</v>
+        <v>1.5516154256455592</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>2.5886780299625545</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>2.5860257094092653</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="10" t="s">
         <v>180</v>
       </c>
@@ -8661,16 +8672,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
     <mergeCell ref="D96:E96"/>
     <mergeCell ref="D97:E97"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="E73:F73"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C86:C87">

--- a/financial_models/opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8D961BB-C49F-7D48-BD87-2A73088CCBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7528676-88AE-4F41-B8F7-5350E10F7394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1480" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -820,18 +809,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1293,7 +1282,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="216">
@@ -1349,8 +1338,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1373,14 +1362,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1405,7 +1394,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1422,7 +1411,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1430,7 +1419,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1477,7 +1466,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1551,7 +1540,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1627,7 +1616,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1638,16 +1627,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1711,7 +1700,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1720,10 +1709,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1741,13 +1730,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1761,26 +1750,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1791,9 +1780,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -2116,19 +2105,19 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2137,7 +2126,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2152,7 +2141,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>216</v>
       </c>
@@ -2171,7 +2160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="35" t="s">
         <v>217</v>
       </c>
@@ -2189,7 +2178,7 @@
       <c r="H4" s="206"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
@@ -2209,7 +2198,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2233,7 +2222,7 @@
       <c r="H6" s="199"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93" t="s">
         <v>214</v>
       </c>
@@ -2248,15 +2237,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="170">
-        <v>1.0866400003433228</v>
+        <v>1.0845636924107869</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="178" t="s">
         <v>212</v>
       </c>
@@ -2264,7 +2253,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>195</v>
       </c>
@@ -2275,7 +2264,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="146" t="s">
         <v>199</v>
       </c>
@@ -2289,7 +2278,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2301,8 +2290,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>196</v>
       </c>
@@ -2313,7 +2302,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>207</v>
       </c>
@@ -2324,7 +2313,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="146" t="s">
         <v>208</v>
       </c>
@@ -2338,7 +2327,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="94" t="s">
         <v>201</v>
       </c>
@@ -2347,8 +2336,8 @@
       </c>
       <c r="D17" s="187"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="183" t="s">
         <v>204</v>
       </c>
@@ -2361,7 +2350,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="175" t="s">
         <v>185</v>
       </c>
@@ -2372,7 +2361,7 @@
       <c r="F20" s="94"/>
       <c r="G20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="175" t="s">
         <v>186</v>
       </c>
@@ -2383,7 +2372,7 @@
       <c r="F21" s="94"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="175" t="s">
         <v>187</v>
       </c>
@@ -2395,7 +2384,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="175" t="s">
         <v>188</v>
       </c>
@@ -2408,10 +2397,10 @@
       </c>
       <c r="G23" s="186">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.81874781727523227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.82031524259073063</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="175" t="s">
         <v>189</v>
       </c>
@@ -2424,10 +2413,10 @@
       </c>
       <c r="G24" s="180">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>2.9538381594428561E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2.9481940844962858E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="175" t="s">
         <v>213</v>
       </c>
@@ -2443,7 +2432,7 @@
         <v>2.1453241233272657</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="177" t="s">
         <v>191</v>
       </c>
@@ -2456,11 +2445,11 @@
       </c>
       <c r="G26" s="180">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>6.3369402598573682E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6.3248318897206265E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2478,919 +2467,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
         <v>184</v>
       </c>
       <c r="C29" s="166">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>1.5516154256455592</v>
+        <v>1.5485978902147282</v>
       </c>
       <c r="D29" s="165">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>2.5860257094092653</v>
+        <v>2.5809964836912136</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>2.0688205675274123</v>
+        <v>2.0647971869529709</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3454,7 +3443,7 @@
       <selection pane="topRight" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3462,7 +3451,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3470,7 +3459,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3487,7 +3476,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3513,13 +3502,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="139" t="s">
         <v>146</v>
@@ -3569,7 +3558,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3597,7 +3586,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3648,7 +3637,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3676,7 +3665,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3727,7 +3716,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3755,7 +3744,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3806,7 +3795,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3828,7 +3817,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3879,7 +3868,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3897,7 +3886,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3919,7 +3908,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3941,7 +3930,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -3969,7 +3958,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -3991,7 +3980,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4042,7 +4031,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4093,7 +4082,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4144,7 +4133,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4195,7 +4184,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4246,7 +4235,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="138" t="s">
         <v>147</v>
@@ -4297,7 +4286,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4348,7 +4337,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4377,7 +4366,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4398,7 +4387,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4419,7 +4408,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4448,7 +4437,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4477,7 +4466,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4506,7 +4495,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4535,7 +4524,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4586,7 +4575,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4615,7 +4604,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4644,7 +4633,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4667,7 +4656,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4718,7 +4707,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>171</v>
@@ -4769,7 +4758,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4787,7 +4776,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4838,7 +4827,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4889,7 +4878,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4940,7 +4929,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -4991,7 +4980,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -5042,7 +5031,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -5093,7 +5082,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5144,7 +5133,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5162,7 +5151,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5213,7 +5202,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5264,7 +5253,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5281,7 +5270,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5331,7 +5320,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5381,7 +5370,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5431,7 +5420,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5481,1260 +5470,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6773,7 +6762,7 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -6782,11 +6771,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6802,7 +6791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6825,7 +6814,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6841,7 +6830,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6856,18 +6845,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>2321027.3446093262</v>
+        <v>2316592.4190721451</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.23329915164796589</v>
+        <v>0.23476413273904695</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6881,14 +6870,14 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>1.8915906294585263</v>
+        <v>1.8843687853336939</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -6904,13 +6893,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6929,7 +6918,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6954,7 +6943,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -6977,7 +6966,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -7002,7 +6991,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -7025,7 +7014,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7048,7 +7037,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7073,7 +7062,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>172</v>
       </c>
@@ -7093,7 +7082,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7113,7 +7102,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7132,7 +7121,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7154,7 +7143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7178,7 +7167,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7197,7 +7186,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7221,7 +7210,7 @@
         <v>598515</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7230,7 +7219,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7252,7 +7241,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7281,7 +7270,7 @@
         <v>4.2936640732370153</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7314,7 +7303,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7347,7 +7336,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7376,7 +7365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7388,7 +7377,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7409,7 +7398,7 @@
       <c r="I30" s="63"/>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7433,7 +7422,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7455,7 +7444,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>173</v>
       </c>
@@ -7480,7 +7469,7 @@
       <c r="I33" s="144"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7505,7 +7494,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7528,7 +7517,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7552,7 +7541,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7576,7 +7565,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7595,7 +7584,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7614,7 +7603,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7633,7 +7622,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7652,7 +7641,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7674,7 +7663,7 @@
         <v>10363</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7683,7 +7672,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7702,7 +7691,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7721,7 +7710,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7751,7 +7740,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7781,7 +7770,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7807,7 +7796,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7834,20 +7823,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7864,7 +7853,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7885,7 +7874,7 @@
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7894,7 +7883,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7905,7 +7894,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -7920,7 +7909,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7935,7 +7924,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7949,7 +7938,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7958,7 +7947,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -7972,7 +7961,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -7993,7 +7982,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -8014,7 +8003,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -8035,7 +8024,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="145" t="s">
         <v>164</v>
       </c>
@@ -8050,7 +8039,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -8071,7 +8060,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -8081,7 +8070,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -8095,7 +8084,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -8116,7 +8105,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="145" t="s">
         <v>165</v>
       </c>
@@ -8131,7 +8120,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8152,7 +8141,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
@@ -8166,7 +8155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
@@ -8180,7 +8169,7 @@
       </c>
       <c r="F73" s="209"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8195,7 +8184,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8216,7 +8205,7 @@
         <v>0.55541924442229906</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8231,7 +8220,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8252,7 +8241,7 @@
         <v>0.35722663926689097</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8267,7 +8256,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8288,7 +8277,7 @@
         <v>6.208277497005729E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8309,7 +8298,7 @@
         <v>2.4949477045225803E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8333,7 +8322,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="79" t="s">
         <v>190</v>
       </c>
@@ -8354,7 +8343,7 @@
         <v>1.3611168709786237E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8375,7 +8364,7 @@
         <v>6.0422694644905017E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8386,7 +8375,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="93" t="s">
         <v>179</v>
       </c>
@@ -8407,7 +8396,7 @@
         <v>4.5317020983678763E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="94" t="s">
         <v>174</v>
       </c>
@@ -8422,7 +8411,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="93" t="s">
         <v>175</v>
       </c>
@@ -8443,11 +8432,11 @@
         <v>2.1453241233272657</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>168</v>
@@ -8457,7 +8446,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
@@ -8467,7 +8456,7 @@
       <c r="E90" s="214"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
         <v>192</v>
       </c>
@@ -8480,11 +8469,11 @@
       <c r="E91" s="215"/>
       <c r="F91" s="29">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9538381594428561E-2</v>
+        <v>2.9481940844962858E-2</v>
       </c>
       <c r="H91" s="185"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (CN)</v>
@@ -8501,11 +8490,11 @@
       </c>
       <c r="F92" s="197">
         <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>0.72174271947789603</v>
+        <v>0.7215449063870758</v>
       </c>
       <c r="H92" s="185"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Data!E3&amp;Dashboard!H3</f>
@@ -8520,77 +8509,77 @@
         <v>229</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
         <f>D95*Common_Shares/Data!E3</f>
-        <v>685902.54387028702</v>
+        <v>684404.31800560351</v>
       </c>
       <c r="D95" s="154">
         <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>0.51442684359935986</v>
+        <v>0.5133031743413059</v>
       </c>
       <c r="E95" s="154">
         <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>0.38992303993308097</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.38907132595580451</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
       <c r="C96" s="102">
         <f>E53*Exchange_Rate</f>
-        <v>4335.6936013698578</v>
+        <v>4327.4091327190399</v>
       </c>
       <c r="D96" s="207">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>3.251769794556169E-3</v>
+        <v>3.2455564438447246E-3</v>
       </c>
       <c r="E96" s="207"/>
       <c r="F96" s="137"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>2325363.0382106961</v>
+        <v>2320919.8282048642</v>
       </c>
       <c r="D97" s="208">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>1.7440220606552645</v>
+        <v>1.7406896535674414</v>
       </c>
       <c r="E97" s="208"/>
       <c r="F97" s="156" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>3006929.8884796132</v>
+        <v>3000996.7370777484</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>2.2551971344600683</v>
+        <v>2.2507472714649022</v>
       </c>
       <c r="E98" s="124">
         <f>E95*Exchange_Rate-D96+D97</f>
-        <v>2.1644762631074608</v>
+        <v>2.1594167310133847</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>2.8189964180750855</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2.8134340893311278</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10" t="s">
         <v>177</v>
       </c>
@@ -8605,28 +8594,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>2509925.6478670081</v>
+        <v>2505129.7830625698</v>
       </c>
       <c r="D101" s="154">
         <f>E87/(C92-2%)*Exchange_Rate</f>
-        <v>1.882444000594756</v>
+        <v>1.8788471024410394</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>1.4118330004460671</v>
+        <v>1.4091353268307796</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>2.3530550007434452</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2.3485588780512994</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
         <v>219</v>
       </c>
@@ -8641,28 +8630,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B104" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>2758427.7681733109</v>
+        <v>2753063.2600701591</v>
       </c>
       <c r="D104" s="154">
         <f>(D98+D101)/2</f>
-        <v>2.0688205675274123</v>
+        <v>2.0647971869529709</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>1.5516154256455592</v>
+        <v>1.5485978902147282</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>2.5860257094092653</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2.5809964836912136</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="10" t="s">
         <v>180</v>
       </c>

--- a/financial_models/opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7528676-88AE-4F41-B8F7-5350E10F7394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E3002E9-AD98-4A2F-A2F2-4830217D6488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -1757,27 +1757,27 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
@@ -2154,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="169">
-        <v>2.0199999809265137</v>
+        <v>1.9700000286102295</v>
       </c>
       <c r="H3" s="171" t="s">
         <v>2</v>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="G5" s="198">
         <f>G3*G4/1000000</f>
-        <v>2693.3336445686818</v>
+        <v>2626.6670331469772</v>
       </c>
       <c r="H5" s="198"/>
       <c r="I5" s="38"/>
@@ -2237,7 +2237,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="170">
-        <v>1.0845636924107869</v>
+        <v>1.0842636823654175</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="G23" s="186">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.82031524259073063</v>
+        <v>0.80023178769437997</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="G24" s="180">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>2.9481940844962858E-2</v>
+        <v>3.022185050404131E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="G26" s="180">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>6.3248318897206265E-2</v>
+        <v>6.4835664937910112E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2473,16 +2473,16 @@
       </c>
       <c r="C29" s="166">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>1.5485978902147282</v>
+        <v>1.5488620510126987</v>
       </c>
       <c r="D29" s="165">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>2.5809964836912136</v>
+        <v>2.5814367516878312</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>2.0647971869529709</v>
+        <v>2.0651494013502649</v>
       </c>
       <c r="H29" s="94"/>
     </row>
@@ -6852,11 +6852,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>2316592.4190721451</v>
+        <v>2315951.6074705659</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.23476413273904695</v>
+        <v>0.23497581089945541</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6877,7 +6877,7 @@
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>1.8843687853336939</v>
+        <v>1.8833264281563042</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -7899,11 +7899,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="94"/>
-      <c r="D56" s="212">
+      <c r="D56" s="207">
         <f>I15+I34</f>
         <v>33999</v>
       </c>
-      <c r="E56" s="213"/>
+      <c r="E56" s="208"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="94"/>
@@ -8146,11 +8146,11 @@
       <c r="B72" s="120" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="210">
+      <c r="C72" s="214">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="210"/>
+      <c r="D72" s="214"/>
       <c r="H72" s="50" t="s">
         <v>8</v>
       </c>
@@ -8160,14 +8160,14 @@
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="209" t="s">
+      <c r="C73" s="213" t="s">
         <v>103</v>
       </c>
-      <c r="D73" s="209"/>
-      <c r="E73" s="211" t="s">
+      <c r="D73" s="213"/>
+      <c r="E73" s="215" t="s">
         <v>104</v>
       </c>
-      <c r="F73" s="209"/>
+      <c r="F73" s="213"/>
     </row>
     <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
@@ -8450,10 +8450,10 @@
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D90" s="214" t="s">
+      <c r="D90" s="209" t="s">
         <v>170</v>
       </c>
-      <c r="E90" s="214"/>
+      <c r="E90" s="209"/>
       <c r="G90" s="94"/>
     </row>
     <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8463,13 +8463,13 @@
       <c r="C91" s="172" t="s">
         <v>225</v>
       </c>
-      <c r="D91" s="215" t="s">
+      <c r="D91" s="210" t="s">
         <v>228</v>
       </c>
-      <c r="E91" s="215"/>
+      <c r="E91" s="210"/>
       <c r="F91" s="29">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9481940844962858E-2</v>
+        <v>3.022185050404131E-2</v>
       </c>
       <c r="H91" s="185"/>
     </row>
@@ -8490,7 +8490,7 @@
       </c>
       <c r="F92" s="197">
         <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>0.7215449063870758</v>
+        <v>0.72414158144426222</v>
       </c>
       <c r="H92" s="185"/>
     </row>
@@ -8515,15 +8515,15 @@
       </c>
       <c r="C95" s="102">
         <f>D95*Common_Shares/Data!E3</f>
-        <v>684404.31800560351</v>
+        <v>686677.33258329646</v>
       </c>
       <c r="D95" s="154">
         <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>0.5133031743413059</v>
+        <v>0.51500793506148046</v>
       </c>
       <c r="E95" s="154">
         <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>0.38907132595580451</v>
+        <v>0.39036349313300317</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8532,13 +8532,13 @@
       </c>
       <c r="C96" s="102">
         <f>E53*Exchange_Rate</f>
-        <v>4327.4091327190399</v>
-      </c>
-      <c r="D96" s="207">
+        <v>4326.2120926380157</v>
+      </c>
+      <c r="D96" s="211">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>3.2455564438447246E-3</v>
-      </c>
-      <c r="E96" s="207"/>
+        <v>3.244658663896179E-3</v>
+      </c>
+      <c r="E96" s="211"/>
       <c r="F96" s="137"/>
     </row>
     <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8547,13 +8547,13 @@
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>2320919.8282048642</v>
-      </c>
-      <c r="D97" s="208">
+        <v>2320277.819563204</v>
+      </c>
+      <c r="D97" s="212">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>1.7406896535674414</v>
-      </c>
-      <c r="E97" s="208"/>
+        <v>1.7402081471463844</v>
+      </c>
+      <c r="E97" s="212"/>
       <c r="F97" s="156" t="s">
         <v>144</v>
       </c>
@@ -8564,19 +8564,19 @@
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>3000996.7370777484</v>
+        <v>3002628.9400538625</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>2.2507472714649022</v>
+        <v>2.251971423543969</v>
       </c>
       <c r="E98" s="124">
         <f>E95*Exchange_Rate-D96+D97</f>
-        <v>2.1594167310133847</v>
+        <v>2.1602204470079056</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>2.8134340893311278</v>
+        <v>2.8149642794299612</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8600,19 +8600,19 @@
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>2505129.7830625698</v>
+        <v>2504436.8185966448</v>
       </c>
       <c r="D101" s="154">
         <f>E87/(C92-2%)*Exchange_Rate</f>
-        <v>1.8788471024410394</v>
+        <v>1.8783273791565613</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>1.4091353268307796</v>
+        <v>1.4087455343674211</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>2.3485588780512994</v>
+        <v>2.3479092239457016</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8636,19 +8636,19 @@
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>2753063.2600701591</v>
+        <v>2753532.8793252534</v>
       </c>
       <c r="D104" s="154">
         <f>(D98+D101)/2</f>
-        <v>2.0647971869529709</v>
+        <v>2.0651494013502649</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>1.5485978902147282</v>
+        <v>1.5488620510126987</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>2.5809964836912136</v>
+        <v>2.5814367516878312</v>
       </c>
     </row>
     <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8661,16 +8661,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E73:F73"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D90:E90"/>
     <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E73:F73"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C86:C87">

--- a/financial_models/opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAABE047-1C31-4534-8EB3-8A4499A1BBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E216EC75-1DB8-40FA-A9A5-813A675473BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>1.9700000286102299</v>
+        <v>1.940000057220459</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="G5" s="243">
         <f>G3*G4/1000000</f>
-        <v>2626.6670331469777</v>
+        <v>2586.667066293955</v>
       </c>
       <c r="H5" s="243"/>
       <c r="I5" s="38"/>
@@ -2512,7 +2512,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.08</v>
+        <v>1.0790773232777913</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2561,7 +2561,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="178">
-        <v>7.0000000000000007E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="111"/>
     </row>
@@ -2607,7 +2607,7 @@
         <v>196</v>
       </c>
       <c r="C17" s="181">
-        <v>0.08</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D17" s="182"/>
     </row>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="G23" s="183">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.80339098599200875</v>
+        <v>0.79183310435224008</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>3.7811164775235745E-2</v>
+        <v>3.8363070176426914E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.458070972199545E-2</v>
+        <v>6.5523353058168796E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2758,20 +2758,20 @@
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>1.5018465790258131</v>
+        <v>1.594996070705033</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.4060044741182667</v>
+        <v>2.624701363985662</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.8040561957630366</v>
+        <v>1.9791168658051488</v>
       </c>
       <c r="G29" s="242">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>1.9248035792946134</v>
+        <v>2.0997610911885296</v>
       </c>
       <c r="H29" s="242"/>
     </row>
@@ -8854,11 +8854,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>2142311.2200000002</v>
+        <v>2140480.9786162772</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.29233413228720584</v>
+        <v>0.29293871267909499</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -8879,7 +8879,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.7352718712910165</v>
+        <v>1.7323081471606914</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10618,17 +10618,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7811164775235745E-2</v>
+        <v>3.8363070176426914E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7811164775235745E-2</v>
+        <v>3.8363070176426914E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7811164775235745E-2</v>
+        <v>3.8363070176426914E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10669,17 +10669,17 @@
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.458070972199545E-2</v>
+        <v>6.5523353058168796E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.458070972199545E-2</v>
+        <v>6.5523353058168796E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.458070972199545E-2</v>
+        <v>6.5523353058168796E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -10727,7 +10727,7 @@
       </c>
       <c r="C93" s="137">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>0.08</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D93" s="206">
         <v>5</v>
@@ -10737,14 +10737,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>1.0379208557430784</v>
+        <v>1.1563151236742335</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>1.0379208557430784</v>
+        <v>1.1563151236742335</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10762,14 +10762,14 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>2.0134843843267864</v>
+        <v>2.247127201554473</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>230</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>2.0134843843267864</v>
+        <v>2.247127201554473</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -10809,19 +10809,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1017203.8788987406</v>
+        <v>1175150.8958309535</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>0.55731251076085908</v>
+        <v>0.62035397604883169</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>0.76290281381120373</v>
+        <v>0.88136306170283252</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>0.76290281381120373</v>
+        <v>0.88136306170283252</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10832,13 +10832,13 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4309.2000000000007</v>
+        <v>4305.5185198783875</v>
       </c>
       <c r="E98" s="222"/>
       <c r="F98" s="222"/>
       <c r="H98" s="124">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>3.2318995960125513E-3</v>
+        <v>3.2291384862664797E-3</v>
       </c>
       <c r="I98" s="224"/>
       <c r="K98" s="24"/>
@@ -10849,16 +10849,16 @@
       </c>
       <c r="C99" s="109">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>2146620.42</v>
+        <v>2144786.4971361556</v>
       </c>
       <c r="E99" s="223"/>
       <c r="F99" s="148">
         <f>H99*0.85</f>
-        <v>1.3684703466912065</v>
+        <v>1.3673012210116466</v>
       </c>
       <c r="H99" s="148">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.6099651137543607</v>
+        <v>1.6085896717784078</v>
       </c>
       <c r="I99" s="225"/>
       <c r="K99" s="24"/>
@@ -10869,23 +10869,23 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>3159515.0988987405</v>
+        <v>3315631.8744472307</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>
-        <v>1.9225509578560529</v>
+        <v>1.9844260585742117</v>
       </c>
       <c r="F100" s="110">
         <f>MAX(F97-H98+F99,0)</f>
-        <v>2.1281412609063977</v>
+        <v>2.2454351442282126</v>
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.3696360279695519</v>
+        <v>2.4867235949949738</v>
       </c>
       <c r="I100" s="110">
         <f>H100*1.25</f>
-        <v>2.9620450349619398</v>
+        <v>3.1084044937437172</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -10923,23 +10923,23 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1973295.0874880888</v>
+        <v>2283731.7353092115</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>1.0811422001955733</v>
+        <v>1.2055660828358541</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>1.4799711306196752</v>
+        <v>1.7127985873820852</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>1.4799711306196752</v>
+        <v>1.7127985873820852</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>1.849963913274594</v>
+        <v>2.1409982342276064</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -10975,23 +10975,23 @@
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>2405408.5616934146</v>
+        <v>2638822.8175930097</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>1.5018465790258131</v>
+        <v>1.594996070705033</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>1.8040561957630366</v>
+        <v>1.9791168658051488</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>1.9248035792946134</v>
+        <v>2.0997610911885296</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>2.4060044741182667</v>
+        <v>2.624701363985662</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E216EC75-1DB8-40FA-A9A5-813A675473BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9859012D-95A2-496C-BAB0-9B26B8F0247F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>1.940000057220459</v>
+        <v>1.9099999666213989</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="G5" s="243">
         <f>G3*G4/1000000</f>
-        <v>2586.667066293955</v>
+        <v>2546.6669404951931</v>
       </c>
       <c r="H5" s="243"/>
       <c r="I5" s="38"/>
@@ -2512,7 +2512,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.0790773232777913</v>
+        <v>1.0758796532948811</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="G23" s="183">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.79183310435224008</v>
+        <v>0.78190527490914019</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>3.8363070176426914E-2</v>
+        <v>3.8850165007280293E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5523353058168796E-2</v>
+        <v>6.6355301242400064E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2758,20 +2758,20 @@
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>1.594996070705033</v>
+        <v>1.5933455257635327</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.624701363985662</v>
+        <v>2.6223861825474968</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.9791168658051488</v>
+        <v>1.9776222301766853</v>
       </c>
       <c r="G29" s="242">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>2.0997610911885296</v>
+        <v>2.0979089460379976</v>
       </c>
       <c r="H29" s="242"/>
     </row>
@@ -8854,11 +8854,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>2140480.9786162772</v>
+        <v>2134138.011688272</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.29293871267909499</v>
+        <v>0.295033973700498</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -8879,7 +8879,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.7323081471606914</v>
+        <v>1.7220565328168873</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10618,17 +10618,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8363070176426914E-2</v>
+        <v>3.8850165007280293E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8363070176426914E-2</v>
+        <v>3.8850165007280293E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8363070176426914E-2</v>
+        <v>3.8850165007280293E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10669,17 +10669,17 @@
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5523353058168796E-2</v>
+        <v>6.6355301242400064E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5523353058168796E-2</v>
+        <v>6.6355301242400064E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5523353058168796E-2</v>
+        <v>6.6355301242400064E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -10737,14 +10737,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>1.1563151236742335</v>
+        <v>1.1590297993474568</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>1.1563151236742335</v>
+        <v>1.1590297993474568</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10762,14 +10762,14 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>2.247127201554473</v>
+        <v>2.2559135647401538</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>230</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>2.247127201554473</v>
+        <v>2.2559135647401538</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -10809,19 +10809,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1175150.8958309535</v>
+        <v>1174419.2482440863</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>0.62035397604883169</v>
+        <v>0.61996774438174118</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>0.88136306170283252</v>
+        <v>0.88081432608127397</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>0.88136306170283252</v>
+        <v>0.88081432608127397</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10832,13 +10832,13 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4305.5185198783875</v>
+        <v>4292.7598166465759</v>
       </c>
       <c r="E98" s="222"/>
       <c r="F98" s="222"/>
       <c r="H98" s="124">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>3.2291384862664797E-3</v>
+        <v>3.2195694600387495E-3</v>
       </c>
       <c r="I98" s="224"/>
       <c r="K98" s="24"/>
@@ -10849,16 +10849,16 @@
       </c>
       <c r="C99" s="109">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>2144786.4971361556</v>
+        <v>2138430.7715049186</v>
       </c>
       <c r="E99" s="223"/>
       <c r="F99" s="148">
         <f>H99*0.85</f>
-        <v>1.3673012210116466</v>
+        <v>1.3632494464282048</v>
       </c>
       <c r="H99" s="148">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.6085896717784078</v>
+        <v>1.6038228781508292</v>
       </c>
       <c r="I99" s="225"/>
       <c r="K99" s="24"/>
@@ -10869,23 +10869,23 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>3315631.8744472307</v>
+        <v>3308557.2599323583</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>
-        <v>1.9844260585742117</v>
+        <v>1.9799976213499071</v>
       </c>
       <c r="F100" s="110">
         <f>MAX(F97-H98+F99,0)</f>
-        <v>2.2454351442282126</v>
+        <v>2.24084420304944</v>
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.4867235949949738</v>
+        <v>2.4814176347720642</v>
       </c>
       <c r="I100" s="110">
         <f>H100*1.25</f>
-        <v>3.1084044937437172</v>
+        <v>3.1017720434650804</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -10923,23 +10923,23 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>2283731.7353092115</v>
+        <v>2285867.29547195</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>1.2055660828358541</v>
+        <v>1.2066934301771584</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>1.7127985873820852</v>
+        <v>1.7144002573039305</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>1.7127985873820852</v>
+        <v>1.7144002573039305</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>2.1409982342276064</v>
+        <v>2.1430003216299132</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -10975,23 +10975,23 @@
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>2638822.8175930097</v>
+        <v>2636829.9698392856</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>1.594996070705033</v>
+        <v>1.5933455257635327</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>1.9791168658051488</v>
+        <v>1.9776222301766853</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>2.0997610911885296</v>
+        <v>2.0979089460379976</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>2.624701363985662</v>
+        <v>2.6223861825474968</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/6601.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5095A7-3E46-4512-9958-463A929F5B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763255AA-FE8F-8549-AFFF-832D7998322E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -22,10 +22,21 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -964,18 +975,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1456,7 +1467,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="264">
@@ -1512,8 +1523,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1536,14 +1547,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1573,7 +1584,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1675,7 +1686,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1703,7 +1714,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1759,13 +1770,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1801,7 +1812,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1834,16 +1845,16 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1864,7 +1875,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1889,10 +1900,10 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1901,10 +1912,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1921,13 +1932,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1939,13 +1950,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1983,7 +1994,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1992,10 +2003,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2054,7 +2065,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2068,7 +2079,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2081,20 +2092,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
@@ -2275,7 +2286,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2337,7 +2348,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2609,7 +2620,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2639,7 +2650,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3451,20 +3462,20 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B4" s="141" t="s">
         <v>202</v>
       </c>
@@ -3479,7 +3490,7 @@
         <v>CNY</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B5" s="141" t="s">
         <v>203</v>
       </c>
@@ -3494,7 +3505,7 @@
         <v>0.1178</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B6" s="141" t="s">
         <v>168</v>
       </c>
@@ -3508,7 +3519,7 @@
         <v>0.1178</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3516,7 +3527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="140" t="s">
         <v>224</v>
       </c>
@@ -3524,7 +3535,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="140" t="s">
         <v>225</v>
       </c>
@@ -3532,7 +3543,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B10" s="140" t="s">
         <v>226</v>
       </c>
@@ -3540,7 +3551,7 @@
         <v>1333333500</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B11" s="140" t="s">
         <v>227</v>
       </c>
@@ -3548,7 +3559,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="224" t="s">
         <v>10</v>
       </c>
@@ -3556,7 +3567,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="224" t="s">
         <v>11</v>
       </c>
@@ -3564,7 +3575,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="224" t="s">
         <v>229</v>
       </c>
@@ -3572,7 +3583,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="224" t="s">
         <v>228</v>
       </c>
@@ -3580,7 +3591,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="231" t="s">
         <v>97</v>
       </c>
@@ -3589,7 +3600,7 @@
       </c>
       <c r="D16" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B18" s="115" t="s">
         <v>137</v>
       </c>
@@ -3638,7 +3649,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B19" s="94" t="s">
         <v>12</v>
       </c>
@@ -3664,7 +3675,7 @@
       <c r="L19" s="151"/>
       <c r="M19" s="151"/>
     </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B20" s="97" t="s">
         <v>106</v>
       </c>
@@ -3690,7 +3701,7 @@
       <c r="L20" s="152"/>
       <c r="M20" s="152"/>
     </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
@@ -3716,7 +3727,7 @@
       <c r="L21" s="152"/>
       <c r="M21" s="152"/>
     </row>
-    <row r="22" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B22" s="97" t="s">
         <v>107</v>
       </c>
@@ -3732,7 +3743,7 @@
       <c r="L22" s="152"/>
       <c r="M22" s="152"/>
     </row>
-    <row r="23" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B23" s="97" t="s">
         <v>124</v>
       </c>
@@ -3758,7 +3769,7 @@
       <c r="L23" s="152"/>
       <c r="M23" s="152"/>
     </row>
-    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B24" s="99" t="s">
         <v>111</v>
       </c>
@@ -3778,7 +3789,7 @@
       <c r="L24" s="152"/>
       <c r="M24" s="152"/>
     </row>
-    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B25" s="97" t="s">
         <v>110</v>
       </c>
@@ -3798,7 +3809,7 @@
       <c r="L25" s="152"/>
       <c r="M25" s="152"/>
     </row>
-    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
@@ -3818,7 +3829,7 @@
       <c r="L26" s="152"/>
       <c r="M26" s="152"/>
     </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B27" s="97" t="s">
         <v>108</v>
       </c>
@@ -3838,7 +3849,7 @@
       <c r="L27" s="152"/>
       <c r="M27" s="152"/>
     </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B28" s="94" t="s">
         <v>15</v>
       </c>
@@ -3854,7 +3865,7 @@
       <c r="L28" s="152"/>
       <c r="M28" s="152"/>
     </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>117</v>
       </c>
@@ -3870,7 +3881,7 @@
       <c r="L29" s="152"/>
       <c r="M29" s="152"/>
     </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B30" s="94" t="s">
         <v>152</v>
       </c>
@@ -3886,7 +3897,7 @@
       <c r="L30" s="152"/>
       <c r="M30" s="152"/>
     </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B31" s="94" t="s">
         <v>16</v>
       </c>
@@ -3910,7 +3921,7 @@
       <c r="L31" s="152"/>
       <c r="M31" s="152"/>
     </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B32" s="94" t="s">
         <v>116</v>
       </c>
@@ -3934,7 +3945,7 @@
       <c r="L32" s="152"/>
       <c r="M32" s="152"/>
     </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B33" s="94" t="s">
         <v>17</v>
       </c>
@@ -3958,7 +3969,7 @@
       <c r="L33" s="152"/>
       <c r="M33" s="152"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B34" s="94" t="s">
         <v>18</v>
       </c>
@@ -3982,7 +3993,7 @@
       <c r="L34" s="152"/>
       <c r="M34" s="152"/>
     </row>
-    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B35" s="94" t="s">
         <v>141</v>
       </c>
@@ -4006,7 +4017,7 @@
       <c r="L35" s="152"/>
       <c r="M35" s="152"/>
     </row>
-    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B36" s="94" t="s">
         <v>142</v>
       </c>
@@ -4030,7 +4041,7 @@
       <c r="L36" s="152"/>
       <c r="M36" s="152"/>
     </row>
-    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B37" s="94" t="s">
         <v>140</v>
       </c>
@@ -4048,7 +4059,7 @@
       <c r="L37" s="152"/>
       <c r="M37" s="152"/>
     </row>
-    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="200" t="s">
         <v>33</v>
       </c>
@@ -4062,7 +4073,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>38</v>
       </c>
@@ -4074,7 +4085,7 @@
       </c>
       <c r="E40" s="112"/>
     </row>
-    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>139</v>
       </c>
@@ -4086,7 +4097,7 @@
       </c>
       <c r="E41" s="112"/>
     </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>117</v>
       </c>
@@ -4099,7 +4110,7 @@
       </c>
       <c r="E42" s="112"/>
     </row>
-    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B43" s="3" t="s">
         <v>42</v>
       </c>
@@ -4111,7 +4122,7 @@
       </c>
       <c r="E43" s="112"/>
     </row>
-    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
@@ -4123,7 +4134,7 @@
       </c>
       <c r="E44" s="112"/>
     </row>
-    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>163</v>
       </c>
@@ -4136,7 +4147,7 @@
       </c>
       <c r="E45" s="112"/>
     </row>
-    <row r="46" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
         <v>118</v>
       </c>
@@ -4148,7 +4159,7 @@
       </c>
       <c r="E46" s="112"/>
     </row>
-    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
         <v>47</v>
       </c>
@@ -4161,7 +4172,7 @@
       </c>
       <c r="E47" s="112"/>
     </row>
-    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
@@ -4176,7 +4187,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>120</v>
       </c>
@@ -4190,7 +4201,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
         <v>50</v>
       </c>
@@ -4203,7 +4214,7 @@
       </c>
       <c r="E50" s="112"/>
     </row>
-    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="35" t="s">
         <v>51</v>
       </c>
@@ -4216,7 +4227,7 @@
       </c>
       <c r="E51" s="112"/>
     </row>
-    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
         <v>61</v>
       </c>
@@ -4229,7 +4240,7 @@
       </c>
       <c r="E52" s="112"/>
     </row>
-    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>63</v>
       </c>
@@ -4242,7 +4253,7 @@
       </c>
       <c r="E53" s="112"/>
     </row>
-    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>65</v>
       </c>
@@ -4255,7 +4266,7 @@
       </c>
       <c r="E54" s="112"/>
     </row>
-    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>164</v>
       </c>
@@ -4268,7 +4279,7 @@
       </c>
       <c r="E55" s="112"/>
     </row>
-    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
         <v>68</v>
       </c>
@@ -4280,7 +4291,7 @@
       </c>
       <c r="E56" s="112"/>
     </row>
-    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
         <v>70</v>
       </c>
@@ -4294,7 +4305,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
         <v>72</v>
       </c>
@@ -4308,7 +4319,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>49</v>
       </c>
@@ -4323,7 +4334,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
         <v>119</v>
       </c>
@@ -4336,7 +4347,7 @@
       </c>
       <c r="E60" s="112"/>
     </row>
-    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B61" s="3" t="s">
         <v>73</v>
       </c>
@@ -4349,7 +4360,7 @@
       </c>
       <c r="E61" s="112"/>
     </row>
-    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
         <v>74</v>
       </c>
@@ -4361,7 +4372,7 @@
       </c>
       <c r="E62" s="112"/>
     </row>
-    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="3" t="s">
         <v>75</v>
       </c>
@@ -4374,7 +4385,7 @@
       </c>
       <c r="E63" s="112"/>
     </row>
-    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B64" s="3" t="s">
         <v>76</v>
       </c>
@@ -4384,19 +4395,19 @@
       </c>
       <c r="E64" s="112"/>
     </row>
-    <row r="65" spans="2:3" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B65" s="200" t="s">
         <v>37</v>
       </c>
       <c r="C65" s="198"/>
     </row>
-    <row r="66" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C66" s="59"/>
     </row>
-    <row r="67" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="3" t="s">
         <v>40</v>
       </c>
@@ -4404,19 +4415,19 @@
         <v>13416</v>
       </c>
     </row>
-    <row r="68" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C68" s="59"/>
     </row>
-    <row r="69" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B69" s="86" t="s">
         <v>43</v>
       </c>
       <c r="C69" s="120"/>
     </row>
-    <row r="70" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B70" s="80" t="s">
         <v>16</v>
       </c>
@@ -4424,13 +4435,13 @@
         <v>611931</v>
       </c>
     </row>
-    <row r="71" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B71" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C71" s="59"/>
     </row>
-    <row r="72" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B72" s="3" t="s">
         <v>64</v>
       </c>
@@ -4438,19 +4449,19 @@
         <v>20583</v>
       </c>
     </row>
-    <row r="73" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B73" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B74" s="86" t="s">
         <v>67</v>
       </c>
       <c r="C74" s="120"/>
     </row>
-    <row r="75" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B75" s="80" t="s">
         <v>85</v>
       </c>
@@ -4458,7 +4469,7 @@
         <v>30946</v>
       </c>
     </row>
-    <row r="76" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B76" s="73" t="s">
         <v>230</v>
       </c>
@@ -4466,28 +4477,28 @@
         <v>3023302</v>
       </c>
     </row>
-    <row r="77" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B77" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C77" s="59"/>
     </row>
-    <row r="78" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B78" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="81" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B81" s="20"/>
     </row>
-    <row r="85" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B85" s="20"/>
     </row>
-    <row r="86" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B86" s="20"/>
     </row>
-    <row r="87" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B87" s="20"/>
     </row>
   </sheetData>
@@ -4540,19 +4551,19 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -4561,7 +4572,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4576,7 +4587,7 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>202</v>
       </c>
@@ -4596,7 +4607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
         <v>203</v>
       </c>
@@ -4616,7 +4627,7 @@
       <c r="H4" s="258"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>168</v>
       </c>
@@ -4637,7 +4648,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
@@ -4663,7 +4674,7 @@
       <c r="H6" s="251"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="86" t="s">
         <v>200</v>
       </c>
@@ -4687,8 +4698,8 @@
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="139" t="s">
         <v>198</v>
       </c>
@@ -4696,7 +4707,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>181</v>
       </c>
@@ -4707,7 +4718,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="122" t="s">
         <v>185</v>
       </c>
@@ -4721,7 +4732,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="87" t="s">
         <v>135</v>
       </c>
@@ -4733,8 +4744,8 @@
       </c>
       <c r="F12" s="110"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>182</v>
       </c>
@@ -4745,7 +4756,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>193</v>
       </c>
@@ -4756,7 +4767,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="122" t="s">
         <v>194</v>
       </c>
@@ -4770,7 +4781,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="87" t="s">
         <v>187</v>
       </c>
@@ -4779,8 +4790,8 @@
       </c>
       <c r="D17" s="179"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="142" t="s">
         <v>190</v>
       </c>
@@ -4795,7 +4806,7 @@
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="137" t="s">
         <v>174</v>
       </c>
@@ -4810,7 +4821,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="137" t="s">
         <v>258</v>
       </c>
@@ -4821,7 +4832,7 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="137" t="s">
         <v>175</v>
       </c>
@@ -4833,7 +4844,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="137" t="s">
         <v>257</v>
       </c>
@@ -4849,7 +4860,7 @@
         <v>0.7789222000728564</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="137" t="s">
         <v>176</v>
       </c>
@@ -4865,7 +4876,7 @@
         <v>3.2193997847263726E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="137" t="s">
         <v>199</v>
       </c>
@@ -4881,7 +4892,7 @@
         <v>2.0690013574526525</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="138" t="s">
         <v>178</v>
       </c>
@@ -4897,8 +4908,8 @@
         <v>6.660942524781642E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
         <v>7</v>
@@ -4918,7 +4929,7 @@
       </c>
       <c r="H28" s="248"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="87" t="s">
         <v>173</v>
       </c>
@@ -4941,22 +4952,22 @@
       </c>
       <c r="H29" s="249"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
         <v>232</v>
       </c>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32"/>
       <c r="B32" s="200" t="s">
         <v>233</v>
       </c>
       <c r="C32" s="235"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>234</v>
@@ -4965,7 +4976,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
         <v>235</v>
@@ -4976,14 +4987,14 @@
         <v>Strongly agree</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35"/>
       <c r="B35" s="200" t="s">
         <v>236</v>
       </c>
       <c r="C35" s="235"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>251</v>
@@ -4992,7 +5003,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
         <v>252</v>
@@ -5001,14 +5012,14 @@
         <v>267</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38"/>
       <c r="B38" s="200" t="s">
         <v>237</v>
       </c>
       <c r="C38" s="235"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>238</v>
@@ -5017,7 +5028,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
         <v>243</v>
@@ -5026,19 +5037,19 @@
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
         <v>239</v>
       </c>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A43"/>
       <c r="B43" s="238" t="s">
         <v>240</v>
@@ -5047,886 +5058,886 @@
         <v>266</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -6001,10 +6012,10 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="E38" sqref="E38"/>
+      <selection pane="topRight" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -6012,7 +6023,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -6020,7 +6031,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -6045,7 +6056,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
         <v>10</v>
@@ -6074,7 +6085,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
         <v>11</v>
@@ -6096,7 +6107,7 @@
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
         <v>137</v>
@@ -6146,7 +6157,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
         <v>12</v>
@@ -6197,7 +6208,7 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
         <v>13</v>
@@ -6248,7 +6259,7 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
         <v>106</v>
@@ -6299,7 +6310,7 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
         <v>103</v>
@@ -6350,7 +6361,7 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
         <v>104</v>
@@ -6401,7 +6412,7 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
         <v>107</v>
@@ -6452,7 +6463,7 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
         <v>253</v>
@@ -6503,7 +6514,7 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="241" t="s">
         <v>254</v>
@@ -6554,7 +6565,7 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="241" t="s">
         <v>245</v>
@@ -6605,7 +6616,7 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="244" t="s">
         <v>255</v>
@@ -6656,7 +6667,7 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
         <v>110</v>
@@ -6707,7 +6718,7 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
         <v>124</v>
@@ -6758,7 +6769,7 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
         <v>99</v>
@@ -6809,7 +6820,7 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
         <v>105</v>
@@ -6860,7 +6871,7 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
         <v>247</v>
@@ -6911,7 +6922,7 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
         <v>108</v>
@@ -6962,18 +6973,18 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
         <v>112</v>
       </c>
       <c r="C22" s="163">
-        <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-MAX(MAX(C21,0)-MAX(C19,0),0))</f>
-        <v>101219</v>
+        <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
+        <v>80557</v>
       </c>
       <c r="D22" s="163">
-        <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-MAX(MAX(D21,0)-MAX(D19,0),0))</f>
-        <v>469</v>
+        <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
+        <v>-20037</v>
       </c>
       <c r="E22" s="163">
         <f t="shared" si="8"/>
@@ -7013,18 +7024,18 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
         <v>113</v>
       </c>
       <c r="C23" s="155">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
-        <v>4.6988706877075487E-2</v>
+        <v>3.7396825298576054E-2</v>
       </c>
       <c r="D23" s="155">
         <f t="shared" si="9"/>
-        <v>2.4314997946963925E-4</v>
+        <v>-1.0388051468300985E-2</v>
       </c>
       <c r="E23" s="155">
         <f t="shared" si="9"/>
@@ -7064,18 +7075,18 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
         <v>114</v>
       </c>
       <c r="C24" s="156">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
-        <v>75914.25</v>
+        <v>60417.75</v>
       </c>
       <c r="D24" s="77">
         <f>IF(D6="","",D22*(1-Fin_Analysis!$I$84))</f>
-        <v>351.75</v>
+        <v>-15027.75</v>
       </c>
       <c r="E24" s="77">
         <f>IF(E6="","",E22*(1-Fin_Analysis!$I$84))</f>
@@ -7115,18 +7126,18 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="247" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="246">
+      <c r="C25" s="246" t="str">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
-        <v>214.81876332622602</v>
-      </c>
-      <c r="D25" s="246">
+        <v>Turn</v>
+      </c>
+      <c r="D25" s="246" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
-        <v>-0.99416833492906254</v>
+        <v>Turn</v>
       </c>
       <c r="E25" s="246">
         <f t="shared" si="10"/>
@@ -7166,7 +7177,7 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
         <v>138</v>
@@ -7217,7 +7228,7 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
         <v>14</v>
@@ -7268,7 +7279,7 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
         <v>15</v>
@@ -7319,7 +7330,7 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
         <v>117</v>
@@ -7370,7 +7381,7 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
         <v>152</v>
@@ -7421,7 +7432,7 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
         <v>16</v>
@@ -7472,7 +7483,7 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
         <v>116</v>
@@ -7523,7 +7534,7 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
         <v>17</v>
@@ -7574,7 +7585,7 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
         <v>18</v>
@@ -7625,7 +7636,7 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
         <v>19</v>
@@ -7676,7 +7687,7 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
         <v>141</v>
@@ -7727,7 +7738,7 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
         <v>142</v>
@@ -7778,7 +7789,7 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
         <v>140</v>
@@ -7829,7 +7840,7 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
         <v>144</v>
@@ -7880,7 +7891,7 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
         <v>162</v>
@@ -7931,7 +7942,7 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
         <v>127</v>
@@ -7949,7 +7960,7 @@
       <c r="M41" s="54"/>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
         <v>98</v>
@@ -8000,7 +8011,7 @@
       </c>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
         <v>246</v>
@@ -8051,7 +8062,7 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
         <v>109</v>
@@ -8102,7 +8113,7 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
         <v>122</v>
@@ -8153,7 +8164,7 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
         <v>132</v>
@@ -8204,18 +8215,18 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
         <v>248</v>
       </c>
       <c r="C47" s="155">
-        <f>IF(C6="","",MAX(MAX(C21,0)-MAX(C19,0),0)/C6)</f>
-        <v>0</v>
+        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>1.2789175437999239E-2</v>
       </c>
       <c r="D47" s="155">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",MAX(MAX(D21,0)-MAX(D19,0),0)/D6)</f>
-        <v>0</v>
+        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
+        <v>1.4174935263694165E-2</v>
       </c>
       <c r="E47" s="155">
         <f t="shared" si="39"/>
@@ -8255,18 +8266,18 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
         <v>125</v>
       </c>
       <c r="C48" s="155">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>6.2651609169433978E-2</v>
+        <v>4.9862433731434744E-2</v>
       </c>
       <c r="D48" s="155">
         <f t="shared" si="40"/>
-        <v>3.241999726261857E-4</v>
+        <v>-1.385073529106798E-2</v>
       </c>
       <c r="E48" s="155">
         <f t="shared" si="40"/>
@@ -8306,7 +8317,7 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
         <v>153</v>
@@ -8324,7 +8335,7 @@
       <c r="M49" s="36"/>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
         <v>150</v>
@@ -8375,7 +8386,7 @@
       </c>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
         <v>151</v>
@@ -8426,7 +8437,7 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
         <v>126</v>
@@ -8443,7 +8454,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
         <v>20</v>
@@ -8493,18 +8504,18 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
         <v>121</v>
       </c>
       <c r="C54" s="159">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>2.9771169740286481</v>
+        <v>2.369393217447572</v>
       </c>
       <c r="D54" s="159">
         <f t="shared" si="44"/>
-        <v>2.8229204285542313E-2</v>
+        <v>-1.2060310581437341</v>
       </c>
       <c r="E54" s="159">
         <f t="shared" si="44"/>
@@ -8543,18 +8554,18 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
         <v>123</v>
       </c>
       <c r="C55" s="155">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>9.909206769480039E-3</v>
+        <v>1.2450811226833175E-2</v>
       </c>
       <c r="D55" s="155">
         <f t="shared" si="45"/>
-        <v>1.840085287846482</v>
+        <v>-4.3070319908169882E-2</v>
       </c>
       <c r="E55" s="155">
         <f t="shared" si="45"/>
@@ -8593,7 +8604,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
         <v>21</v>
@@ -8643,1263 +8654,1263 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14